--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,358 +469,380 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.112199396077426</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.25</v>
       </c>
       <c r="C2" t="n">
-        <v>0.513703125</v>
+        <v>0.2559217681884766</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-0.401503728922574</t>
-        </is>
+        <v>-0.03494553843383789</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.005921768188476562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2473380565643311</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.141879962865146</t>
-        </is>
+        <v>0.2523250579833984</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2752325057983399</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5075625</v>
+        <v>0.2531024932861328</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1</v>
+        <v>-0.03494553756713868</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.365682537134854</t>
-        </is>
+        <v>0.06505446243286134</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02213001251220703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4478020668029785</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.165935644093784</t>
-        </is>
+        <v>0.5515246391296387</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3051524639129639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.47353125</v>
+        <v>0.2558587493896484</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-0.204674279140285</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-0.307595605906216</t>
-        </is>
+        <v>0.06505446624755859</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1650544662475586</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04929371452331544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6472687721252441</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.189871648732456</t>
-        </is>
+        <v>0.751988410949707</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3251988410949707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.43996875</v>
+        <v>0.2721600036621094</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2046742858886719</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-0.169810755365611</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-0.250097101267544</t>
-        </is>
+        <v>0.1650544738769531</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2316572910697939</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05303883743286136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8472671508789062</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.213871454182895</t>
-        </is>
+        <v>0.9514548778533936</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3451454877853394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402796875</v>
+        <v>0.3098418579101562</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1698107604980469</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-0.0764849754981022</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-0.188925420817105</t>
-        </is>
+        <v>0.2316572875976562</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1749391300083161</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03530362987518315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9479975700378418</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.225959104481967</t>
-        </is>
+        <v>1.317476034164429</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3817476034164429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.38175</v>
+        <v>0.3881193542480469</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.07648497772216797</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-0.0656368115455101</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-0.155790895518033</t>
-        </is>
+        <v>0.1749391326904297</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.07493913269042968</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.006371750831604017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.331040620803833</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.271924270573886</t>
-        </is>
+        <v>1.651582479476929</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4151582479476928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.357375</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06563681030273437</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03436318969726564</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-0.0854507294261136</t>
-        </is>
+        <v>-0.03917047077674882</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01206639194488529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.547461748123169</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.297894805852207</t>
-        </is>
+        <v>1.95177960395813</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.445177960395813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.35071875</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03436318969726562</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.118337198556481</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-0.0528239441477933</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01795332050323484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.747925996780396</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.321950515691074</t>
-        </is>
+        <v>2.251976728439331</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4751976728439331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.363515625</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1183371963500977</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.129298690884318</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-0.0415651093089261</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.04797303295135497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.947392463684082</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.345886491719516</t>
-        </is>
+        <v>2.451443433761597</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4951443433761596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.384421875</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1292986907958984</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.111170443544643</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-0.0385353832804837</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.06791970348358151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.14785623550415</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.369942144337924</t>
-        </is>
+        <v>2.651906728744507</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5151906728744506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.41296875</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1111704406738281</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.0611495758413509</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-0.0430266056620755</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0879660329818725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.347323179244995</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.393878177586826</t>
-        </is>
+        <v>2.951655626296997</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5451655626296996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.431390625</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06114957427978516</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.0531444814069492</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-0.0375124474131742</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1179409227371215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.547786712646484</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.417933801595005</t>
-        </is>
+        <v>3.251852512359619</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5751852512359619</v>
       </c>
       <c r="C14" t="n">
-        <v>0.441515625</v>
+        <v>0.4272246398925781</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05314448165893555</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.0872724487386002</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-0.0235818234049954</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1479606113433837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.84752631187439</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.453902553502353</t>
-        </is>
+        <v>3.452316284179688</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5952316284179687</v>
       </c>
       <c r="C15" t="n">
-        <v>0.46471875</v>
+        <v>0.4274156188964844</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08727244567871094</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.126283678460387</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-0.0108161964976468</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1678160095214843</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.651782989501953</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6151782989501953</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.447614990234375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1675633087158203</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.852246761322021</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6352246761322021</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.49754248046875</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2758238285408022</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1376821956634521</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4.151446580886841</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6651446580886841</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5803087158203125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.2758238220214844</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1758238220214844</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08483594226837154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4.451643705368042</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6951643705368041</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.65110498046875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1758238220214844</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.07582382202148438</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.04405939006805415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4.751840829849243</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7251840829849242</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6887081298828125</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.003574963789749508</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03647595310211171</v>
       </c>
     </row>
   </sheetData>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,376 +473,876 @@
         <v>0.25</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2559217681884766</v>
+        <v>0.35</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03494553843383789</v>
+        <v>-0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.005921768188476562</v>
+        <v>-0.09999999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2523250579833984</v>
+        <v>0.06283187866210938</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2752325057983399</v>
+        <v>0.256283187866211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2531024932861328</v>
+        <v>0.3494137573242188</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03494553756713868</v>
+        <v>-0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06505446243286134</v>
+        <v>-0.1497021164855957</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02213001251220703</v>
+        <v>-0.09313056945800779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5515246391296387</v>
+        <v>0.1621017456054688</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3051524639129639</v>
+        <v>0.2662101745605469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2558587493896484</v>
+        <v>0.3375224914550781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06505446624755859</v>
+        <v>-0.1497021179199219</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1650544662475586</v>
+        <v>-0.1051092717712401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04929371452331544</v>
+        <v>-0.07131231689453121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.751988410949707</v>
+        <v>0.2628326416015625</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3251988410949707</v>
+        <v>0.2762832641601563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2721600036621094</v>
+        <v>0.323150634765625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1650544738769531</v>
+        <v>-0.1051092681884766</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2316572910697939</v>
+        <v>-0.02543874259643537</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05303883743286136</v>
+        <v>-0.04686737060546869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9514548778533936</v>
+        <v>0.3625657558441162</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3451454877853394</v>
+        <v>0.2862565755844117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3098418579101562</v>
+        <v>0.3157481079101562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2316572875976562</v>
+        <v>-0.02543874168395996</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1749391300083161</v>
+        <v>0.03448910847435029</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03530362987518315</v>
+        <v>-0.02949153232574453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.317476034164429</v>
+        <v>0.4622988700866699</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3817476034164429</v>
+        <v>0.2962298870086671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3881193542480469</v>
+        <v>0.315</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1749391326904297</v>
+        <v>0.03448910903930664</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07493913269042968</v>
+        <v>0.07077161773643501</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.006371750831604017</v>
+        <v>-0.01877011299133291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.651582479476929</v>
+        <v>0.5620322227478027</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4151582479476928</v>
+        <v>0.3062032222747804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3206699829101562</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.07077161407470703</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03917047077674882</v>
+        <v>0.07881944488716131</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01206639194488529</v>
+        <v>-0.01446676063537589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.95177960395813</v>
+        <v>0.7624959945678711</v>
       </c>
       <c r="B9" t="n">
-        <v>0.445177960395813</v>
+        <v>0.3262495994567872</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3345299987792969</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.07881944274902344</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.1018401070484162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01795332050323484</v>
+        <v>-0.008280399322509679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.251976728439331</v>
+        <v>0.8627545833587646</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4751976728439331</v>
+        <v>0.3362754583358766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3435075073242188</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1018401107788086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>0.1001055570266726</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04797303295135497</v>
+        <v>-0.007232048988342177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.451443433761597</v>
+        <v>0.9624881744384766</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4951443433761596</v>
+        <v>0.3462488174438478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3535874938964844</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.1001055603027344</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0.09249134642868068</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06791970348358151</v>
+        <v>-0.007338676452636583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.651906728744507</v>
+        <v>1.088151931762695</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5151906728744506</v>
+        <v>0.3588151931762696</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3658331298828125</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.09249134826660156</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>0.08729421469192489</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0879660329818725</v>
+        <v>-0.007017936706542882</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.951655626296997</v>
+        <v>1.162951707839966</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5451655626296996</v>
+        <v>0.3662951707839967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3729599914550781</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.08729421234130859</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0.08256876686058068</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1179409227371215</v>
+        <v>-0.006664820671081428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.251852512359619</v>
+        <v>1.262685060501099</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5751852512359619</v>
+        <v>0.37626850605011</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4272246398925781</v>
+        <v>0.3807168579101562</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.08256876373291015</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.08914956603775034</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1479606113433837</v>
+        <v>-0.004448351860046273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.452316284179688</v>
+        <v>1.362418174743652</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5952316284179687</v>
+        <v>0.3862418174743654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4274156188964844</v>
+        <v>0.3894974975585938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1</v>
+        <v>0.08914956665039063</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2</v>
+        <v>0.0916808815612795</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1678160095214843</v>
+        <v>-0.003255680084228385</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.651782989501953</v>
+        <v>1.561884641647339</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6151782989501953</v>
+        <v>0.406188464164734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.447614990234375</v>
+        <v>0.407255615234375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2</v>
+        <v>0.09168088531494141</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0.1011598819515232</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1675633087158203</v>
+        <v>-0.001067151069640948</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.852246761322021</v>
+        <v>1.662615299224854</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6352246761322021</v>
+        <v>0.4162615299224855</v>
       </c>
       <c r="C17" t="n">
-        <v>0.49754248046875</v>
+        <v>0.417375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3</v>
+        <v>0.1011598815917969</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2758238285408022</v>
+        <v>0.09942161484489445</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1376821956634521</v>
+        <v>-0.0011134700775145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.151446580886841</v>
+        <v>1.762348651885986</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6651446580886841</v>
+        <v>0.4262348651885988</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5803087158203125</v>
+        <v>0.4301325073242188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2758238220214844</v>
+        <v>0.09942161560058593</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1758238220214844</v>
+        <v>0.08148365157966611</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08483594226837154</v>
+        <v>-0.003897642135619994</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.451643705368042</v>
+        <v>1.86307954788208</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6951643705368041</v>
+        <v>0.4363079547882082</v>
       </c>
       <c r="C19" t="n">
-        <v>0.65110498046875</v>
+        <v>0.4371412353515625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1758238220214844</v>
+        <v>0.08148365020751953</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07582382202148438</v>
+        <v>0.09554527981681844</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04405939006805415</v>
+        <v>-0.000833280563354355</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.751840829849243</v>
+        <v>1.962812662124634</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7251840829849242</v>
+        <v>0.4462812662124636</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6887081298828125</v>
+        <v>0.4457250061035156</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.09554528045654297</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.003574963789749508</v>
+        <v>0.1024840596832279</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03647595310211171</v>
+        <v>0.0005562601089479369</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.062545776367188</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4562545776367189</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.4551749877929688</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1024840621948242</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1055640790031434</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001079589843750173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.16227912902832</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4662279129028322</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.467302490234375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.105564079284668</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.09331657159194985</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.001074577331542759</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.263009548187256</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4763009548187258</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.47588623046875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.09331657409667969</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1006272798706054</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.000414724349975748</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.362742900848389</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.486274290084839</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4866749877929687</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1006272811889648</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.09568000757522593</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0004006977081297269</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.462476015090942</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4962476015090944</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4959674987792969</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.09568000793457031</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.09882690331840553</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00028010272979756</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.661942481994629</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.516194248199463</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5147493896484375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.098826904296875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1054435906665799</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.001444858551025496</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.762673377990723</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5262673377990724</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5254593505859375</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1054435882568359</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1024799242115024</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0008079872131349086</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.862934350967407</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5362934350967409</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5354606323242187</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1024799270629883</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1028480308708196</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0008328027725221787</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.062400817871094</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5562400817871095</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5565656127929688</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.102848030090332</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.09625749617156922</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0003255310058593031</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.162134170532227</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5662134170532228</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5665274658203125</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.09625749969482422</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.09552600301818875</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0003140487670897363</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.262864589691162</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5762864589691163</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5794425048828125</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0955260009765625</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.07796552268600512</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.003156045913696115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.462331295013428</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5962331295013429</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.593578125</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.07796552276611328</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1089034136627198</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.002655004501342928</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.562064409255981</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6062064409255983</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6023587646484375</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1089034118652344</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1178274313755035</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.003847676277160761</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.662795066833496</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6162795066833497</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6162974853515625</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1178274307250977</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.09798070560417209</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1.797866821273697e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.862261533737183</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6362261533737184</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6351975097656249</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.09798070526123047</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1036385606697083</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.001028643608093405</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.962992191314697</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6462992191314698</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.6459862670898437</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.103638557434082</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.09984109676132186</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0003129520416260689</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4.06272554397583</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.6562725543975831</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.6580743408203125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.09984109497070312</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.08714297304687553</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.001801786422729323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4.162458658218384</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.6662458658218385</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.66783935546875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.08714297485351563</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.08624558404121437</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.001593489646911417</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.262192010879517</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6762192010879519</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6739818725585938</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0862455825805664</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.106911219923401</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.002237328529358096</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4.362922430038452</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6862922430038454</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6841799926757812</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1069112167358398</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1076873365100863</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.002112250328064169</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.462655544281006</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.6962655544281008</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.6955593872070313</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1076873397827148</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1007938076328279</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0007061672210695313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.562389135360718</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7062389135360719</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7051275024414062</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1007938079833984</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1033229639160158</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001111411094665726</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.662122249603271</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7162122249603273</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7155224609375</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1033229675292969</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1013390140869138</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0006897640228272772</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4.762852907180786</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7262852907180788</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.725760009765625</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.1013390121459961</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1004934742847444</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0005252809524537438</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4.962319135665894</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.7462319135665896</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.7456443481445313</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.1004934768676758</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.100838537807465</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0005875654220582893</v>
       </c>
     </row>
   </sheetData>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,433 +471,803 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.896805223073117</t>
+          <t>0.109061589495270</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.003196228027344</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>-0.1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.0534742519294859</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.106391004954227</t>
+          <t>0.00906158949526976</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2563145160675049</v>
+        <v>0.1107039451599121</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.927562965001217</t>
+          <t>0.122346062914459</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9890606079101563</v>
+        <v>0.1030837478637695</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+        <v>0.05347425079345703</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.121847950801633</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0614976429089391</t>
+          <t>0.0192623150506897</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4567782878875732</v>
+        <v>0.1904904842376709</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.951618617619625</t>
+          <t>0.131920447603790</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9757518310546875</v>
+        <v>0.1090293731689453</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0.1218479537963867</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.160655175683300</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0241332134350621</t>
+          <t>0.0228910744348449</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6562447547912598</v>
+        <v>0.2912211418151855</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.975554593648068</t>
+          <t>0.144008126513092</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.983548095703125</v>
+        <v>0.1213537445068359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.1606551818847656</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.162821212653611</t>
+          <t>0.179949306780636</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.00799350205505722</t>
+          <t>0.0226543820062561</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7559783458709717</v>
+        <v>0.3909544944763184</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.987522624577633</t>
+          <t>0.155976128832428</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.001188110351563</v>
+        <v>0.1391118774414062</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1628212127685547</v>
+        <v>0.1799493103027344</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.123985317782461</t>
+          <t>0.166285363813336</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.0136654857739293</t>
+          <t>0.0168642513910217</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9564418792724609</v>
+        <v>0.490687370300293</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.01157824858581</t>
+          <t>0.167944073931305</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.026388061523438</v>
+        <v>0.156239990234375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1239853210449219</v>
+        <v>0.1662853698730469</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.103911977924967</t>
+          <t>0.151141131965115</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.0148098129376257</t>
+          <t>0.0117040836969299</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.200788259506226</v>
+        <v>0.5904209613800049</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.04089981421386</t>
+          <t>0.179912104860870</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.056864379882813</v>
+        <v>0.1719112548828125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103911979675293</v>
+        <v>0.1511411285400391</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.0826220467607872</t>
+          <t>0.139958251181194</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0159645656689491</t>
+          <t>0.00800084997805783</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.456105470657349</v>
+        <v>0.6911513805389404</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.07153787955200</t>
+          <t>0.191999755159943</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.078126831054687</v>
+        <v>0.1861649932861328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08262204742431641</v>
+        <v>0.139958251953125</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.117034754073935</t>
+          <t>0.134518625087826</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.00658895150268912</t>
+          <t>0.00583476187380980</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.555838584899902</v>
+        <v>0.7908847332000732</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.08350585326110</t>
+          <t>0.203967757479279</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.090451293945313</v>
+        <v>0.2011275024414063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1170347518920898</v>
+        <v>0.1345186309814453</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.108262769189279</t>
+          <t>0.122245262611400</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.00694544068420777</t>
+          <t>0.00284025503787227</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.75630259513855</v>
+        <v>0.8906180858612061</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.10756153448974</t>
+          <t>0.215935759798614</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.11561181640625</v>
+        <v>0.213333740234375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1082627716064453</v>
+        <v>0.1222452621459961</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0950851483659814</t>
+          <t>0.123541961084682</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.00805028191650758</t>
+          <t>0.00260201956423944</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.955768823623657</v>
+        <v>0.9903514385223389</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.13149748190796</t>
+          <t>0.227903762117950</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.131283081054687</v>
+        <v>0.2258549957275391</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09508515167236328</v>
+        <v>0.1235419616699219</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.131398331211659</t>
+          <t>0.122768102770855</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.000214400853267849</t>
+          <t>0.00204876639041132</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.056499481201172</v>
+        <v>1.091081619262695</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.14358516081726</t>
+          <t>0.239991383806793</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.140851196289062</v>
+        <v>0.2381793670654297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1313983306884766</v>
+        <v>0.1227681045532227</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.144955283849894</t>
+          <t>0.123365863014003</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00273396452819474</t>
+          <t>0.00181201674136347</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.255965948104858</v>
+        <v>1.190814971923828</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.16752113684570</t>
+          <t>0.251959386126129</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.17282373046875</v>
+        <v>0.2503462524414062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1449552764892578</v>
+        <v>0.1233658599853516</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.104023432870649</t>
+          <t>0.123975892417614</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.00530259362305063</t>
+          <t>0.00161313368472288</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.456429958343506</v>
+        <v>1.290548086166382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.19157681807434</t>
+          <t>0.263927359835236</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.1929443359375</v>
+        <v>0.2625131225585938</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1040234298706055</v>
+        <v>0.1239758911132813</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.119700483703007</t>
+          <t>0.124408547105800</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.00136751786316291</t>
+          <t>0.00141423727664181</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.55616307258606</v>
+        <v>1.390281438827515</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.20354479178344</t>
+          <t>0.275895362154571</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.207985595703125</v>
+        <v>0.2747587585449219</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1197004852294922</v>
+        <v>0.1244085464477539</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.101463020209269</t>
+          <t>0.124199009769756</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.00444080391968127</t>
+          <t>0.00113660360964962</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.756162166595459</v>
+        <v>1.490589141845703</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.22754468306457</t>
+          <t>0.287932286516754</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.23200439453125</v>
+        <v>0.287713134765625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.101463020324707</v>
+        <v>0.1241990127563477</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.0966414534879127</t>
+          <t>0.119964941430141</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.00445971146667845</t>
+          <t>0.000219151751129132</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.956625699996948</v>
+        <v>1.590322494506836</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.25160030707275</t>
+          <t>0.299900288836090</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.25047119140625</v>
+        <v>0.2995650024414063</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0966414566040039</v>
+        <v>0.1199649429321289</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.122083878608828</t>
+          <t>0.121003727639171</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.00112911566650009</t>
+          <t>0.000335286394683776</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.691052913665771</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.311987939135162</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3119681091308594</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1210037307739258</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.119600673355953</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98300043029453e-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.790786266326904</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.323955941454498</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3237806091308594</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1196006698608399</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.120692568477641</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.000175332323638866</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.890519618988037</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.335923943773834</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3362624816894531</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1206925659179687</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.117974712280971</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-0.000338537915618942</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.990252733230591</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.347891917482941</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3483506164550781</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1179747085571289</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.117116705444194</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-0.000458698972137517</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.090983152389526</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.359979567782013</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.3593756103515625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1171167068481445</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.123129906541987</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.000603957430450386</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.190716743469238</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.371947598711578</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3714637451171875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1231299057006836</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.123121791373149</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.000483853594390848</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.290449619293213</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.383915543810455</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3838668823242187</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1231217880249023</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.121146617833338</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.86614862365564e-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.391180515289307</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.396003251329987</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3963093566894531</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.121146614074707</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.119253912707835</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-0.000306105359466569</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.490913867950439</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.407971253649322</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4076493835449219</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1192539138793945</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.122840488221979</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.000321870104400601</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.590646743774414</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.419939198748199</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.420328125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1228404846191406</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.119093016429301</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-0.000388926251800592</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.690380334854126</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.431907229677765</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4328887329101562</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.119093017578125</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.115402149179926</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-0.000981503232391379</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.791110992431641</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.443994908587067</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4441499938964844</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1154021453857422</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.119549841533670</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-0.000155085309417768</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.890843868255615</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.455962853685944</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.4553324890136718</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1195498428344727</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.124200360697107</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.000630364672271677</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.990577220916748</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.467930856005279</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4674599914550781</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1242003631591797</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.123983145430612</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.000470864550201344</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -471,803 +471,777 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.109061589495270</t>
+          <t>0.720090337809021</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>1.23877685546875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.0534742519294859</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-0.1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00906158949526976</t>
+          <t>-0.518686517659729</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1107039451599121</v>
+        <v>0.08078408241271973</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.122346062914459</t>
+          <t>0.729784427698547</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1030837478637695</v>
+        <v>1.237753051757813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05347425079345703</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.121847950801633</t>
-        </is>
+        <v>-0.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0192623150506897</t>
+          <t>-0.507968624059265</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1904904842376709</v>
+        <v>0.1805169582366943</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.131920447603790</t>
+          <t>0.741752372797424</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1090293731689453</v>
+        <v>1.22609814453125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1218479537963867</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.160655175683300</t>
-        </is>
+        <v>-0.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0228910744348449</t>
+          <t>-0.484345771733826</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2912211418151855</v>
+        <v>0.2802503108978271</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.144008126513092</t>
+          <t>0.753720375116760</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1213537445068359</v>
+        <v>1.206253051757812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1606551818847656</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.179949306780636</t>
-        </is>
+        <v>-0.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.38</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0226543820062561</t>
+          <t>-0.452532676641052</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3909544944763184</v>
+        <v>0.3799834251403809</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.155976128832428</t>
+          <t>0.765688348825867</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1391118774414062</v>
+        <v>1.174280639648438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1799493103027344</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.166285363813336</t>
-        </is>
+        <v>-0.38</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.48</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0168642513910217</t>
+          <t>-0.408592290822571</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.490687370300293</v>
+        <v>0.4807140827178955</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.167944073931305</t>
+          <t>0.777776027735168</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.156239990234375</v>
+        <v>1.134984375</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1662853698730469</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.151141131965115</t>
-        </is>
+        <v>-0.48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.58</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0117040836969299</t>
+          <t>-0.357208347264832</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5904209613800049</v>
+        <v>0.5804474353790283</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.179912104860870</t>
+          <t>0.789744030054504</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1719112548828125</v>
+        <v>1.087380004882812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1511411285400391</v>
+        <v>-0.58</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.139958251181194</t>
+          <t>-0.618544506310614</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00800084997805783</t>
+          <t>-0.297635974828308</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6911513805389404</v>
+        <v>0.680180549621582</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.191999755159943</t>
+          <t>0.801712003763611</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1861649932861328</v>
+        <v>1.025876220703125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.139958251953125</v>
+        <v>-0.6185444946289063</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.134518625087826</t>
+          <t>-0.522684111277676</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00583476187380980</t>
+          <t>-0.224164216939514</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7908847332000732</v>
+        <v>0.7799139022827148</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.203967757479279</t>
+          <t>0.813680006082947</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2011275024414063</v>
+        <v>0.9673649902343751</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1345186309814453</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.122245262611400</t>
-        </is>
+        <v>-0.5226840820312501</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4226840820312501</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00284025503787227</t>
+          <t>-0.153684984151429</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8906180858612061</v>
+        <v>0.8806445598602295</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.215935759798614</t>
+          <t>0.825767684992248</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.213333740234375</v>
+        <v>0.9161381225585937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1222452621459961</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.123541961084682</t>
-        </is>
+        <v>-0.42268408203125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.32268408203125</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00260201956423944</t>
+          <t>-0.0903704375663454</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9903514385223389</v>
+        <v>0.9803776741027832</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.227903762117950</t>
+          <t>0.837735658701355</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2258549957275391</v>
+        <v>0.8765662231445313</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1235419616699219</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.122768102770855</t>
-        </is>
+        <v>-0.32268408203125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.22268408203125</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00204876639041132</t>
+          <t>-0.0388305644431766</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.091081619262695</v>
+        <v>1.080111026763916</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.239991383806793</t>
+          <t>0.849703661020691</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2381793670654297</v>
+        <v>0.8466806030273437</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1227681045532227</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.123365863014003</t>
-        </is>
+        <v>-0.22268408203125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.12268408203125</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00181201674136347</t>
+          <t>0.00302305799334690</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.190814971923828</v>
+        <v>1.200788259506226</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.251959386126129</t>
+          <t>0.864184928949768</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2503462524414062</v>
+        <v>0.8210868530273437</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1233658599853516</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.123975892417614</t>
-        </is>
+        <v>-0.12268408203125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.02268408203125</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.00161313368472288</t>
+          <t>0.0430980759224240</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.290548086166382</v>
+        <v>1.280574798583984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.263927359835236</t>
+          <t>0.873759313639099</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2625131225585938</v>
+        <v>0.8113218383789063</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1239758911132813</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.124408547105800</t>
-        </is>
+        <v>-0.02268408203125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07731591796875001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00141423727664181</t>
+          <t>0.0624374752601925</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.390281438827515</v>
+        <v>1.380308151245117</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.275895362154571</t>
+          <t>0.885727315958435</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2747587585449219</v>
+        <v>0.8106918334960938</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1244085464477539</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.124199009769756</t>
-        </is>
+        <v>0.07731591796874999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.17731591796875</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00113660360964962</t>
+          <t>0.0750354824623409</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.490589141845703</v>
+        <v>1.48004150390625</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.287932286516754</t>
+          <t>0.897695318277771</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.287713134765625</v>
+        <v>0.8210474853515625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1241990127563477</v>
+        <v>0.17731591796875</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.119964941430141</t>
+          <t>0.257784314454428</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.000219151751129132</t>
+          <t>0.0766478329262081</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.590322494506836</v>
+        <v>1.580771923065186</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.299900288836090</t>
+          <t>0.909782968576843</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2995650024414063</v>
+        <v>0.839947509765625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1199649429321289</v>
+        <v>0.2577843017578125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.121003727639171</t>
+          <t>0.294441371440338</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.000335286394683776</t>
+          <t>0.0698354588112178</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.691052913665771</v>
+        <v>1.680505037307739</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.311987939135162</t>
+          <t>0.921750942285949</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3119681091308594</v>
+        <v>0.86668310546875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1210037307739258</v>
+        <v>0.2944413757324219</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.119600673355953</t>
+          <t>0.281382800590022</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.98300043029453e-5</t>
+          <t>0.0550678368171992</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.790786266326904</v>
+        <v>1.780238628387451</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.323955941454498</t>
+          <t>0.933718973215515</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3237806091308594</v>
+        <v>0.8953875122070313</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1196006698608399</v>
+        <v>0.2813828125</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.120692568477641</t>
+          <t>0.242963676225225</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.000175332323638866</t>
+          <t>0.0383314610084834</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.890519618988037</v>
+        <v>1.879971504211426</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.335923943773834</t>
+          <t>0.945686918314392</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3362624816894531</v>
+        <v>0.92180810546875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1206925659179687</v>
+        <v>0.2429636688232422</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.117974712280971</t>
+          <t>0.200164164840317</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.000338537915618942</t>
+          <t>0.0238788128456416</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.990252733230591</v>
+        <v>1.98070216178894</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.347891917482941</t>
+          <t>0.957774597223693</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3483506164550781</v>
+        <v>0.9460237426757813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1179747085571289</v>
+        <v>0.2001641693115234</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.117116705444194</t>
+          <t>0.155477093291911</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.000458698972137517</t>
+          <t>0.0117508545479121</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.090983152389526</v>
+        <v>2.080435752868652</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.359979567782013</t>
+          <t>0.969742628153259</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3593756103515625</v>
+        <v>0.9652387084960937</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1171167068481445</v>
+        <v>0.1554770965576172</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.123129906541987</t>
+          <t>0.125024092557638</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.000603957430450386</t>
+          <t>0.00450391965716512</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.190716743469238</v>
+        <v>2.180168628692627</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.371947598711578</t>
+          <t>0.981710573252136</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3714637451171875</v>
+        <v>0.9798074951171875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1231299057006836</v>
+        <v>0.1250240936279297</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.123121791373149</t>
+          <t>0.112414962005401</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.000483853594390848</t>
+          <t>0.00190307813494839</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.290449619293213</v>
+        <v>2.279902219772339</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.383915543810455</t>
+          <t>0.993678604181701</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3838668823242187</v>
+        <v>0.9922893676757812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1231217880249023</v>
+        <v>0.1124149627685547</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.121146617833338</t>
+          <t>0.108476178283533</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.86614862365564e-5</t>
+          <t>0.00138923650592004</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.391180515289307</v>
+        <v>2.380632400512695</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.396003251329987</t>
+          <t>1.00576622587054</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3963093566894531</v>
+        <v>1.003432495117188</v>
       </c>
       <c r="D26" t="n">
-        <v>0.121146614074707</v>
+        <v>0.1084761810302734</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.119253912707835</t>
+          <t>0.111900902379886</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.000306105359466569</t>
+          <t>0.00233373075335641</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.490913867950439</v>
+        <v>2.480365753173828</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.407971253649322</t>
+          <t>1.01773422818988</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4076493835449219</v>
+        <v>1.013709350585938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1192539138793945</v>
+        <v>0.1119009017944336</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.122840488221979</t>
+          <t>0.120306066326095</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.000321870104400601</t>
+          <t>0.00402487760394243</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.590646743774414</v>
+        <v>2.580625295639038</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.419939198748199</t>
+          <t>1.02976537328571</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.420328125</v>
+        <v>1.0265849609375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1228404846191406</v>
+        <v>0.1203060684204102</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.119093016429301</t>
+          <t>0.116713254840861</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.000388926251800592</t>
+          <t>0.00318041234820532</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.690380334854126</v>
+        <v>2.680358409881592</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.431907229677765</t>
+          <t>1.04173334699481</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4328887329101562</v>
+        <v>1.037058715820312</v>
       </c>
       <c r="D29" t="n">
-        <v>0.119093017578125</v>
+        <v>0.1167132568359375</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.115402149179926</t>
+          <t>0.124909546674794</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.000981503232391379</t>
+          <t>0.00467463117449940</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.791110992431641</v>
+        <v>2.780091762542725</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.443994908587067</t>
+          <t>1.05370134931415</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4441499938964844</v>
+        <v>1.049855590820312</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1154021453857422</v>
+        <v>0.1249095458984375</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.119549841533670</t>
+          <t>0.122059206184508</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.000155085309417768</t>
+          <t>0.00384575849383539</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.890843868255615</v>
+        <v>2.879824876785278</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.455962853685944</t>
+          <t>1.06566932302325</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4553324890136718</v>
+        <v>1.062298095703125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1195498428344727</v>
+        <v>0.1220592041015625</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.124200360697107</t>
+          <t>0.120296807071862</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.000630364672271677</t>
+          <t>0.00337122732012940</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.990577220916748</v>
+        <v>2.980555534362793</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.467930856005279</t>
+          <t>1.07775700193256</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4674599914550781</v>
+        <v>1.07426806640625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1242003631591797</v>
+        <v>0.1202968063354492</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.123983145430612</t>
+          <t>0.121261459718936</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.000470864550201344</t>
+          <t>0.00348893552630614</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.720090337809021</t>
+          <t>0.770082950885031</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.23877685546875</v>
+        <v>0.8686124877929687</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,763 +485,681 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.518686517659729</t>
+          <t>-0.0985295369079380</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.08078408241271973</v>
+        <v>0.1585760116577148</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.729784427698547</t>
+          <t>0.789112072283957</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.237753051757813</v>
+        <v>0.86668310546875</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
       </c>
-      <c r="E3" t="n">
-        <v>-0.2</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-0.0248667563874785</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.507968624059265</t>
+          <t>-0.0775710331847935</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1805169582366943</v>
+        <v>0.2593064308166504</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.741752372797424</t>
+          <t>0.801199722583029</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.22609814453125</v>
+        <v>0.8584143676757813</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.3</v>
+        <v>-0.02486675643920899</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.0563533908831639</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.484345771733826</t>
+          <t>-0.0572146450927525</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2802503108978271</v>
+        <v>0.4587728977203369</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.753720375116760</t>
+          <t>0.825135698611471</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.206253051757812</v>
+        <v>0.8556581420898437</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.28</v>
+        <v>0.05635338973999023</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.38</v>
+        <v>0.1563533897399902</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.452532676641052</t>
+          <t>-0.0305224434783726</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.3799834251403809</v>
+        <v>0.6592369079589844</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.765688348825867</t>
+          <t>0.849191379840109</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.174280639648438</v>
+        <v>0.8754637451171875</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.48</v>
+        <v>0.1563533935546875</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.166358354958177</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.408592290822571</t>
+          <t>-0.0262723652770788</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4807140827178955</v>
+        <v>0.8587031364440918</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.777776027735168</t>
+          <t>0.873127327258322</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.134984375</v>
+        <v>0.9057431030273437</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.58</v>
+        <v>0.1663583526611328</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.117250931500518</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.357208347264832</t>
+          <t>-0.0326157757690221</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5804474353790283</v>
+        <v>0.9584364891052246</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.789744030054504</t>
+          <t>0.885095329577658</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.087380004882812</v>
+        <v>0.9249581298828125</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.58</v>
+        <v>0.1172509307861328</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.618544506310614</t>
+          <t>0.0599609297042351</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.297635974828308</t>
+          <t>-0.0398628003051549</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.680180549621582</v>
+        <v>1.158900260925293</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.801712003763611</t>
+          <t>0.909150982196066</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.025876220703125</v>
+        <v>0.942322509765625</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6185444946289063</v>
+        <v>0.05996092987060547</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.522684111277676</t>
+          <t>0.0795721324958883</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.224164216939514</t>
+          <t>-0.0331715275695592</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7799139022827148</v>
+        <v>1.358366966247559</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.813680006082947</t>
+          <t>0.933086986834738</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9673649902343751</v>
+        <v>0.9556312255859375</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5226840820312501</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.4226840820312501</v>
+        <v>0.07957213592529297</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.124898960287542</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.153684984151429</t>
+          <t>-0.0225442387511998</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8806445598602295</v>
+        <v>1.558364152908325</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.825767684992248</t>
+          <t>0.957086649234030</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9161381225585937</v>
+        <v>0.978193115234375</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.42268408203125</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.32268408203125</v>
+        <v>0.1248989639282227</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.122151068899088</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.0903704375663454</t>
+          <t>-0.0211064660003454</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9803776741027832</v>
+        <v>1.758829355239868</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.837735658701355</t>
+          <t>0.981142473513815</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8765662231445313</v>
+        <v>0.99815625</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.32268408203125</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.22268408203125</v>
+        <v>0.1221510696411133</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.135331349969284</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.0388305644431766</t>
+          <t>-0.0170137764861852</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.080111026763916</v>
+        <v>1.882498741149902</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.849703661020691</t>
+          <t>0.995982799823019</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8466806030273437</v>
+        <v>1.01630810546875</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.22268408203125</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.12268408203125</v>
+        <v>0.1353313446044922</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.107715474590160</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00302305799334690</t>
+          <t>-0.0203253056457311</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.200788259506226</v>
+        <v>2.059026479721069</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.864184928949768</t>
+          <t>1.01716612845156</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.8210868530273437</v>
+        <v>1.036153076171875</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.12268408203125</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.02268408203125</v>
+        <v>0.1077154769897461</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.105331172749818</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.0430980759224240</t>
+          <t>-0.0189869477203159</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.280574798583984</v>
+        <v>2.258492946624756</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.873759313639099</t>
+          <t>1.04110210448000</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8113218383789063</v>
+        <v>1.058833129882812</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02268408203125</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.07731591796875001</v>
+        <v>0.105331169128418</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.103061083894514</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.0624374752601925</t>
+          <t>-0.0177310254028111</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.380308151245117</v>
+        <v>2.458956956863403</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.885727315958435</t>
+          <t>1.06515778570864</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8106918334960938</v>
+        <v>1.08084375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07731591796874999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.17731591796875</v>
+        <v>0.1030610809326172</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.105890630471452</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.0750354824623409</t>
+          <t>-0.0156859642913612</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.48004150390625</v>
+        <v>2.65842342376709</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.897695318277771</t>
+          <t>1.08909376173708</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8210474853515625</v>
+        <v>1.100176879882812</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17731591796875</v>
+        <v>0.1058906326293945</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.257784314454428</t>
+          <t>0.124377127399155</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.0766478329262081</t>
+          <t>-0.0110831181457312</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.580771923065186</v>
+        <v>2.759154319763184</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.909782968576843</t>
+          <t>1.10118146925661</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.839947509765625</v>
+        <v>1.11376123046875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2577843017578125</v>
+        <v>0.1243771286010742</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.294441371440338</t>
+          <t>0.109829005094676</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.0698354588112178</t>
+          <t>-0.0125797612121377</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.680505037307739</v>
+        <v>2.958620548248291</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.921750942285949</t>
+          <t>1.12511741667483</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.86668310546875</v>
+        <v>1.135456909179688</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2944413757324219</v>
+        <v>0.1098290023803711</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.281382800590022</t>
+          <t>0.116101525641076</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0550678368171992</t>
+          <t>-0.0103394925048623</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.780238628387451</v>
+        <v>3.15908408164978</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.933718973215515</t>
+          <t>1.14917304068300</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.8953875122070313</v>
+        <v>1.156443725585937</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2813828125</v>
+        <v>0.1161015243530273</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.242963676225225</t>
+          <t>0.128166049224928</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.0383314610084834</t>
+          <t>-0.00727068490293359</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.879971504211426</v>
+        <v>3.258817672729492</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.945686918314392</t>
+          <t>1.16114107161257</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.92180810546875</v>
+        <v>1.174831909179687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2429636688232422</v>
+        <v>0.1281660461425781</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.200164164840317</t>
+          <t>0.0869652751222016</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.0238788128456416</t>
+          <t>-0.0136908375671183</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.98070216178894</v>
+        <v>3.459281206130981</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.957774597223693</t>
+          <t>1.18519669562075</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9460237426757813</v>
+        <v>1.19447998046875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2001641693115234</v>
+        <v>0.08696527862548828</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.155477093291911</t>
+          <t>0.105164895460127</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.0117508545479121</t>
+          <t>-0.00928328484800223</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.080435752868652</v>
+        <v>3.658747673034668</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.969742628153259</t>
+          <t>1.20913267164919</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9652387084960937</v>
+        <v>1.212671264648437</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1554770965576172</v>
+        <v>0.1051648941040039</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.125024092557638</t>
+          <t>0.133088598686657</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.00450391965716512</t>
+          <t>-0.00353859299924730</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.180168628692627</v>
+        <v>3.859211683273315</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.981710573252136</t>
+          <t>1.23318835287783</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9798074951171875</v>
+        <v>1.234681884765625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1250240936279297</v>
+        <v>0.1330885925292969</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.112414962005401</t>
+          <t>0.142342742017671</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00190307813494839</t>
+          <t>-0.00149353188779711</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.279902219772339</v>
+        <v>3.958944797515869</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.993678604181701</t>
+          <t>1.24515632658693</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9922893676757812</v>
+        <v>1.254251220703125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1124149627685547</v>
+        <v>0.1423427429199219</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.108476178283533</t>
+          <t>0.0969605797408889</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.00138923650592004</t>
+          <t>-0.00909489411619058</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.380632400512695</v>
+        <v>4.158411264419556</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.00576622587054</t>
+          <t>1.26909230261538</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.003432495117188</v>
+        <v>1.27433251953125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1084761810302734</v>
+        <v>0.09696057891845702</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.111900902379886</t>
+          <t>0.114060715898363</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.00233373075335641</t>
+          <t>-0.00524021691587340</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.480365753173828</v>
+        <v>4.259142160415649</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.01773422818988</t>
+          <t>1.28118001013491</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.013709350585938</v>
+        <v>1.288349975585938</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1119009017944336</v>
+        <v>0.1140607147216797</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.120306066326095</t>
+          <t>0.0996049560292269</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.00402487760394243</t>
+          <t>-0.00716996545102977</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.580625295639038</v>
+        <v>4.458608388900757</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.02976537328571</t>
+          <t>1.30511595755312</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.0265849609375</v>
+        <v>1.30725</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1203060684204102</v>
+        <v>0.09960495758056641</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.116713254840861</t>
+          <t>0.124380581564678</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.00318041234820532</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2.680358409881592</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1.04173334699481</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>1.037058715820312</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1167132568359375</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.124909546674794</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00467463117449940</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2.780091762542725</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.05370134931415</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1.049855590820312</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1249095458984375</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.122059206184508</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00384575849383539</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2.879824876785278</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1.06566932302325</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1.062298095703125</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.1220592041015625</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.120296807071862</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.00337122732012940</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2.980555534362793</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1.07775700193256</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1.07426806640625</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.1202968063354492</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.121261459718936</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.00348893552630614</t>
+          <t>-0.00213404244687943</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.770082950885031</t>
+          <t>0.00423660232268432</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8686124877929687</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,681 +485,445 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0985295369079380</t>
+          <t>-0.0957633976773157</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1585760116577148</v>
+        <v>0.2263944149017334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.789112072283957</t>
+          <t>0.0314039321108923</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.86668310546875</v>
+        <v>0.08981437683105468</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.0248667563874785</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0775710331847935</t>
+          <t>-0.0584104447201624</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2593064308166504</v>
+        <v>0.4268581867218018</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.801199722583029</t>
+          <t>0.0554595847293005</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8584143676757813</v>
+        <v>0.07599375152587891</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02486675643920899</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.0563533908831639</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0572146450927525</t>
+          <t>-0.0205341667965784</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4587728977203369</v>
+        <v>0.6263244152069092</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.825135698611471</t>
+          <t>0.0793955321475134</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8556581420898437</v>
+        <v>0.08001000213623047</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05635338973999023</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1563533897399902</v>
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.198835074074442</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0305224434783726</t>
+          <t>-0.000614469988717059</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6592369079589844</v>
+        <v>0.7938764095306396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.849191379840109</t>
+          <t>0.0995017714663611</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8754637451171875</v>
+        <v>0.1052493743896484</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1563533935546875</v>
+        <v>0.1988350677490234</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.166358354958177</t>
+          <t>0.167779276346686</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.0262723652770788</t>
+          <t>-0.00574760292328737</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8587031364440918</v>
+        <v>0.9265215396881104</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.873127327258322</t>
+          <t>0.115419187085258</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9057431030273437</v>
+        <v>0.1328512420654297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1663583526611328</v>
+        <v>0.1677792816162109</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.117250931500518</t>
+          <t>0.0934299692851286</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.0326157757690221</t>
+          <t>-0.0174320549801722</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9584364891052246</v>
+        <v>1.126985788345337</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.885095329577658</t>
+          <t>0.139474896924125</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9249581298828125</v>
+        <v>0.160177490234375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1172509307861328</v>
+        <v>0.09342996978759766</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.0599609297042351</t>
+          <t>0.0581818984815061</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0398628003051549</t>
+          <t>-0.0207025933102503</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.158900260925293</v>
+        <v>1.326452016830444</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.909150982196066</t>
+          <t>0.163410844342338</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.942322509765625</v>
+        <v>0.1743524932861328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05996092987060547</v>
+        <v>0.05818190002441406</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0795721324958883</t>
+          <t>0.0968629621520655</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.0331715275695592</t>
+          <t>-0.0109416489437952</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.358366966247559</v>
+        <v>1.526915788650513</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.933086986834738</t>
+          <t>0.187466496960746</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9556312255859375</v>
+        <v>0.1905356292724609</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07957213592529297</v>
+        <v>0.09686296081542969</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.124898960287542</t>
+          <t>0.133183466281304</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.0225442387511998</t>
+          <t>-0.00306913231171510</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.558364152908325</v>
+        <v>1.626696109771729</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.957086649234030</t>
+          <t>0.199440135495292</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.978193115234375</v>
+        <v>0.2058131256103516</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1248989639282227</v>
+        <v>0.1331834716796875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.122151068899088</t>
+          <t>0.110640985357289</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.0211064660003454</t>
+          <t>-0.00637299011505985</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.758829355239868</v>
+        <v>1.827112913131714</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.981142473513815</t>
+          <t>0.223490151898490</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.99815625</v>
+        <v>0.2279418640136719</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1221510696411133</v>
+        <v>0.110640983581543</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.135331349969284</t>
+          <t>0.115947984420610</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.0170137764861852</t>
+          <t>-0.00445171211518192</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.882498741149902</v>
+        <v>1.926846265792847</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.995982799823019</t>
+          <t>0.235458154217826</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.01630810546875</v>
+        <v>0.2381399993896484</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1353313446044922</v>
+        <v>0.1159479827880859</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.107715474590160</t>
+          <t>0.122087590379377</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.0203253056457311</t>
+          <t>-0.00268184517182257</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.059026479721069</v>
+        <v>2.126840114593506</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.01716612845156</t>
+          <t>0.259457416073905</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.036153076171875</v>
+        <v>0.263103759765625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1077154769897461</v>
+        <v>0.1220875930786133</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.105331172749818</t>
+          <t>0.113682949073283</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.0189869477203159</t>
+          <t>-0.00364634369172001</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.258492946624756</v>
+        <v>2.326306581497192</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.04110210448000</t>
+          <t>0.283393392102347</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.058833129882812</v>
+        <v>0.2856656188964844</v>
       </c>
       <c r="D15" t="n">
-        <v>0.105331169128418</v>
+        <v>0.1136829528808594</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.103061083894514</t>
+          <t>0.118205364498603</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.0177310254028111</t>
+          <t>-0.00227222679413702</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.458956956863403</v>
+        <v>2.526770353317261</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.06515778570864</t>
+          <t>0.307449044720756</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.08084375</v>
+        <v>0.3081881103515625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1030610809326172</v>
+        <v>0.1182053680419922</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.105890630471452</t>
+          <t>0.124901959156711</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.0156859642913612</t>
+          <t>-0.000739065630806945</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.65842342376709</v>
+        <v>2.62660026550293</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.08909376173708</t>
+          <t>0.319428634183036</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.100176879882812</v>
+        <v>0.3211424865722656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1058906326293945</v>
+        <v>0.1249019622802734</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.124377127399155</t>
+          <t>0.118179449080781</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.0110831181457312</t>
+          <t>-0.00171385238922978</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.759154319763184</v>
+        <v>2.826967477798462</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.10118146925661</t>
+          <t>0.343472699658500</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.11376123046875</v>
+        <v>0.345791259765625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1243771286010742</v>
+        <v>0.1181794509887695</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.109829005094676</t>
+          <t>0.112760313773678</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.0125797612121377</t>
+          <t>-0.00231856010712533</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.958620548248291</v>
+        <v>2.926700830459595</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.12511741667483</t>
+          <t>0.355440701977836</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.135456909179688</v>
+        <v>0.358036865234375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1098290023803711</v>
+        <v>0.1127603149414062</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.116101525641076</t>
+          <t>0.108723742338342</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.0103394925048623</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>3.15908408164978</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1.14917304068300</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1.156443725585937</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1161015243530273</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.128166049224928</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.00727068490293359</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>3.258817672729492</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.16114107161257</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1.174831909179687</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1281660461425781</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.0869652751222016</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-0.0136908375671183</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>3.459281206130981</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1.18519669562075</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.19447998046875</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.08696527862548828</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.105164895460127</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.00928328484800223</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>3.658747673034668</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1.20913267164919</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1.212671264648437</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1051648941040039</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.133088598686657</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.00353859299924730</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3.859211683273315</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1.23318835287783</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1.234681884765625</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.1330885925292969</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.142342742017671</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-0.00149353188779711</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>3.958944797515869</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1.24515632658693</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1.254251220703125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1423427429199219</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.0969605797408889</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-0.00909489411619058</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4.158411264419556</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1.26909230261538</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1.27433251953125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.09696057891845702</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.114060715898363</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-0.00524021691587340</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>4.259142160415649</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1.28118001013491</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1.288349975585938</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1140607147216797</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.0996049560292269</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-0.00716996545102977</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>4.458608388900757</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1.30511595755312</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1.30725</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.09960495758056641</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.124380581564678</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-0.00213404244687943</t>
+          <t>-0.00259616325653939</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.00423660232268432</t>
+          <t>0.00427331299108243</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.3842212524414063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,445 +485,445 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0957633976773157</t>
+          <t>-0.379947939450324</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2263944149017334</v>
+        <v>0.124666690826416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0314039321108923</t>
+          <t>0.0192333158902523</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08981437683105468</v>
+        <v>0.3736293640136719</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0584104447201624</t>
+          <t>-0.354396048123420</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4268581867218018</v>
+        <v>0.3241331577301025</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0554595847293005</t>
+          <t>0.0431692919186947</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07599375152587891</v>
+        <v>0.3476418762207031</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1</v>
+        <v>-0.2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-0.225654586651003</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0205341667965784</t>
+          <t>-0.304472584302008</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6263244152069092</v>
+        <v>0.5245969295501709</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0793955321475134</t>
+          <t>0.0672249445371029</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08001000213623047</v>
+        <v>0.3093299865722656</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>-0.2256545867919922</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.198835074074442</t>
+          <t>-0.133248519226103</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.000614469988717059</t>
+          <t>-0.242105042035163</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7938764095306396</v>
+        <v>0.7240638732910156</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0995017714663611</t>
+          <t>0.0911609777860043</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1052493743896484</v>
+        <v>0.2742468566894531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1988350677490234</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.167779276346686</t>
-        </is>
+        <v>-0.1332485198974609</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.03324851989746094</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.00574760292328737</t>
+          <t>-0.183085878903449</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9265215396881104</v>
+        <v>0.8247940540313721</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.115419187085258</t>
+          <t>0.103248599474847</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1328512420654297</v>
+        <v>0.2571581115722656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1677792816162109</v>
+        <v>-0.03324851989746094</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.0934299692851286</t>
+          <t>-0.0278267471608805</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.0174320549801722</t>
+          <t>-0.153909512097419</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.126985788345337</v>
+        <v>1.023799657821655</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.139474896924125</t>
+          <t>0.127129271929681</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.160177490234375</v>
+        <v>0.2523937530517578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09342996978759766</v>
+        <v>-0.02782674789428711</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.0581818984815061</t>
+          <t>0.000568556189312276</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0207025933102503</t>
+          <t>-0.125264481122077</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.326452016830444</v>
+        <v>1.224265575408936</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.163410844342338</t>
+          <t>0.151185182040155</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1743524932861328</v>
+        <v>0.2489287414550781</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05818190002441406</v>
+        <v>0.0005685561895370484</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0968629621520655</t>
+          <t>0.0479948511973341</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.0109416489437952</t>
+          <t>-0.0977435594149234</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.526915788650513</v>
+        <v>1.323998928070068</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.187466496960746</t>
+          <t>0.163153184359491</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1905356292724609</v>
+        <v>0.2489681243896484</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09686296081542969</v>
+        <v>0.02428170394897461</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.133183466281304</t>
+          <t>0.00437926686308589</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.00306913231171510</t>
+          <t>-0.0858149400301578</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.626696109771729</v>
+        <v>1.524462938308716</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.199440135495292</t>
+          <t>0.187208865588128</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2058131256103516</v>
+        <v>0.2504250030517578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1331834716796875</v>
+        <v>0.004379266738891601</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.110640985357289</t>
+          <t>0.0580908085067356</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.00637299011505985</t>
+          <t>-0.0632161374636295</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.827112913131714</v>
+        <v>1.62419605255127</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.223490151898490</t>
+          <t>0.199176839297235</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2279418640136719</v>
+        <v>0.2508187408447266</v>
       </c>
       <c r="D12" t="n">
-        <v>0.110640983581543</v>
+        <v>0.0580908088684082</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.115947984420610</t>
+          <t>0.0670343594269659</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.00445171211518192</t>
+          <t>-0.0516419015474918</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.926846265792847</v>
+        <v>1.824659824371338</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.235458154217826</t>
+          <t>0.223232491915643</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2381399993896484</v>
+        <v>0.2633399963378906</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1159479827880859</v>
+        <v>0.06703436279296875</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.122087590379377</t>
+          <t>0.0861115478044717</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.00268184517182257</t>
+          <t>-0.0401075044222477</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.126840114593506</v>
+        <v>2.024126529693604</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.259457416073905</t>
+          <t>0.247168496554315</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.263103759765625</v>
+        <v>0.2781843566894531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1220875930786133</v>
+        <v>0.08611154937744141</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.113682949073283</t>
+          <t>0.101120231024507</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.00364634369172001</t>
+          <t>-0.0310158601351383</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.326306581497192</v>
+        <v>2.224590063095093</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.283393392102347</t>
+          <t>0.271224120562494</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2856656188964844</v>
+        <v>0.2981081237792969</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1136829528808594</v>
+        <v>0.101120231628418</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.118205364498603</t>
+          <t>0.0950163868542528</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.00227222679413702</t>
+          <t>-0.0268840032168033</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.526770353317261</v>
+        <v>2.424056529998779</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.307449044720756</t>
+          <t>0.295160096590936</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3081881103515625</v>
+        <v>0.3168112487792969</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1182053680419922</v>
+        <v>0.09501638793945312</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.124901959156711</t>
+          <t>0.0991010982587968</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.000739065630806945</t>
+          <t>-0.0216511521883610</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.62660026550293</v>
+        <v>2.624520540237427</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.319428634183036</t>
+          <t>0.319215777819574</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3211424865722656</v>
+        <v>0.33413623046875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1249019622802734</v>
+        <v>0.0991010971069336</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.118179449080781</t>
+          <t>0.116714775022076</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.00171385238922978</t>
+          <t>-0.0149204526491764</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.826967477798462</v>
+        <v>2.792072296142578</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.343472699658500</t>
+          <t>0.339321988528192</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.345791259765625</v>
+        <v>0.3552806091308593</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1181794509887695</v>
+        <v>0.1167147750854492</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.112760313773678</t>
+          <t>0.0945306140343473</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.00231856010712533</t>
+          <t>-0.0159586206026676</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.926700830459595</v>
+        <v>2.924717664718628</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.355440701977836</t>
+          <t>0.355239432757318</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.358036865234375</v>
+        <v>0.3742200012207031</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1127603149414062</v>
+        <v>0.0945306167602539</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.108723742338342</t>
+          <t>0.0596850264162167</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.00259616325653939</t>
+          <t>-0.0189805684633854</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.00427331299108243</t>
+          <t>0.115925384684989</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3842212524414063</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,445 +485,339 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.379947939450324</t>
+          <t>-0.274832000568917</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.124666690826416</v>
+        <v>0.2174186706542969</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0192333158902523</t>
+          <t>0.142015625163504</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3736293640136719</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.2</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-0.0940446702015745</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.354396048123420</t>
+          <t>-0.248741760090402</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3241331577301025</v>
+        <v>0.4178824424743652</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0431692919186947</t>
+          <t>0.166071277781913</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3476418762207031</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.225654586651003</t>
+          <t>-0.0828371454745108</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.304472584302008</t>
+          <t>-0.224686107471994</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5245969295501709</v>
+        <v>0.6173486709594727</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0672249445371029</t>
+          <t>0.190007225200126</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3093299865722656</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2256545867919922</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.133248519226103</t>
+          <t>-0.0621342189911603</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.242105042035163</t>
+          <t>-0.200750160053781</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7240638732910156</v>
+        <v>0.7180793285369873</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0911609777860043</t>
+          <t>0.202094904109427</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2742468566894531</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1332485198974609</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03324851989746094</v>
+        <v>-0.1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.183085878903449</t>
+          <t>-0.188662481144479</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8247940540313721</v>
+        <v>0.9175457954406738</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.103248599474847</t>
+          <t>0.226030880137870</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2571581115722656</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03324851989746094</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.0278267471608805</t>
+          <t>-0.0301368532795557</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.153909512097419</t>
+          <t>-0.164726505116037</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.023799657821655</v>
+        <v>1.1180100440979</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.127129271929681</t>
+          <t>0.250086589976737</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2523937530517578</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02782674789428711</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.000568556189312276</t>
+          <t>-0.00805685032678385</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.125264481122077</t>
+          <t>-0.140670795277169</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.224265575408936</v>
+        <v>1.318473815917969</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.151185182040155</t>
+          <t>0.274142242595145</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2489287414550781</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0005685561895370484</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0479948511973341</t>
+          <t>0.0134530127562981</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.0977435594149234</t>
+          <t>-0.116615142658761</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.323998928070068</v>
+        <v>1.517484664916992</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.163153184359491</t>
+          <t>0.298023544475028</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2489681243896484</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02428170394897461</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00437926686308589</t>
+          <t>0.0339631501466310</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.0858149400301578</t>
+          <t>-0.0927338407788784</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.524462938308716</v>
+        <v>1.618215322494507</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.187208865588128</t>
+          <t>0.310111223384330</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2504250030517578</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004379266738891601</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0580908085067356</t>
+          <t>-0.0142228290821463</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.0632161374636295</t>
+          <t>-0.0806461618695766</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.62419605255127</v>
+        <v>1.817681789398193</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.199176839297235</t>
+          <t>0.334047199412772</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2508187408447266</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0580908088684082</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0670343594269659</t>
+          <t>0.0664929827161457</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.0516419015474918</t>
+          <t>-0.0567101858411342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.824659824371338</v>
+        <v>2.018145322799683</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.223232491915643</t>
+          <t>0.358102823420951</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2633399963378906</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06703436279296875</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0861115478044717</t>
+          <t>0.0887020987479888</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.0401075044222477</t>
+          <t>-0.0326545618329555</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.024126529693604</v>
+        <v>2.217612504959106</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.247168496554315</t>
+          <t>0.382038885280082</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2781843566894531</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08611154937744141</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.101120231024507</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.0310158601351383</t>
+          <t>-0.00871849997382468</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.224590063095093</v>
+        <v>2.387158870697021</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.271224120562494</t>
+          <t>0.402384449168631</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2981081237792969</v>
+        <v>0.3907573852539062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.101120231628418</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0950163868542528</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.0268840032168033</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2.424056529998779</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.295160096590936</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3168112487792969</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.09501638793945312</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.0991010982587968</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-0.0216511521883610</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2.624520540237427</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.319215777819574</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.33413623046875</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0991010971069336</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.116714775022076</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-0.0149204526491764</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2.792072296142578</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.339321988528192</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3552806091308593</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.1167147750854492</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.0945306140343473</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-0.0159586206026676</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2.924717664718628</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.355239432757318</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3742200012207031</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.0945306167602539</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.0596850264162167</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-0.0189805684633854</t>
+          <t>0.0116270639147251</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.115925384684989</t>
+          <t>0.0161851345798387</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,339 +485,369 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.274832000568917</t>
+          <t>-0.0838148654201613</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2174186706542969</v>
+        <v>0.2253973484039307</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.142015625163504</t>
+          <t>0.0432328163883104</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.0927281265258789</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.0940446702015745</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.248741760090402</t>
+          <t>-0.0494953101375685</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4178824424743652</v>
+        <v>0.3258082866668701</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.166071277781913</t>
+          <t>0.0552821289798631</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.0840262451171875</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.0828371454745108</t>
+          <t>0.0776918003275948</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.224686107471994</t>
+          <t>-0.0287441161373243</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6173486709594727</v>
+        <v>0.5252749919891357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.190007225200126</t>
+          <t>0.0792181336185350</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.09012937164306641</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.07769180297851562</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.0621342189911603</t>
+          <t>0.156828520684739</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.200750160053781</t>
+          <t>-0.0109112380245314</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7180793285369873</v>
+        <v>0.745685338973999</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.202094904109427</t>
+          <t>0.105667375256719</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.1161168746948242</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.1</v>
+        <v>0.1568285217285156</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.149512567131360</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.188662481144479</t>
+          <t>-0.0104494994381056</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9175457954406738</v>
+        <v>0.9262022972106934</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.226030880137870</t>
+          <t>0.127329410245122</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.1409624938964844</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.1495125732421875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-0.0301368532795557</t>
+          <t>0.121088419154306</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.164726505116037</t>
+          <t>-0.0136330836513625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.1180100440979</v>
+        <v>1.025935649871826</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.250086589976737</t>
+          <t>0.139297412564458</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.1617525024414062</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.1210884170532227</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.00805685032678385</t>
+          <t>0.0565054011928162</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.140670795277169</t>
+          <t>-0.0224550898769484</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.318473815917969</v>
+        <v>1.225402355194092</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.274142242595145</t>
+          <t>0.163233417203130</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.1775418701171875</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.05650540161132812</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0134530127562981</t>
+          <t>0.0840804048164091</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.116615142658761</t>
+          <t>-0.0143084529140578</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.517484664916992</v>
+        <v>1.425865888595581</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.298023544475028</t>
+          <t>0.187289041211308</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.1908899993896484</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.08408040618896484</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.0339631501466310</t>
+          <t>0.134092122370514</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.0927338407788784</t>
+          <t>-0.00360095817834000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.618215322494507</v>
+        <v>1.525599241256714</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.310111223384330</t>
+          <t>0.199257043530644</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.2079393768310547</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.1340921173095703</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.0142228290821463</t>
+          <t>0.100575827792355</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.0806461618695766</t>
+          <t>-0.00868233330041032</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.817681789398193</v>
+        <v>1.726063013076782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.334047199412772</t>
+          <t>0.223312696149053</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.2282174987792969</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.1005758285522461</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0664929827161457</t>
+          <t>0.114747959836205</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.0567101858411342</t>
+          <t>-0.00490480263024431</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.018145322799683</v>
+        <v>1.925529718399048</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.358102823420951</t>
+          <t>0.247248700787724</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.2468812408447266</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.1147479629516602</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0887020987479888</t>
+          <t>0.141139231018850</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.0326545618329555</t>
+          <t>0.000367459942997861</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.217612504959106</v>
+        <v>2.125993490219116</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.382038885280082</t>
+          <t>0.271304353406133</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.2727900085449219</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.1411392364501953</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.130234029882464</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.00871849997382468</t>
+          <t>-0.00148565513878923</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.387158870697021</v>
+        <v>2.225727081298828</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.402384449168631</t>
+          <t>0.283272384335698</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3907573852539062</v>
+        <v>0.2911387329101562</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1</v>
+        <v>0.1302340240478516</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.0909388620003194</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.0116270639147251</t>
+          <t>-0.00786634857445817</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.426190614700317</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.307328008343877</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3130706176757813</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0909388656616211</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.0960703411923022</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-0.00574260933190446</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,383 +471,411 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0161851345798387</t>
+          <t>0.389902297159714</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.3494924926757813</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0838148654201613</t>
+          <t>0.0404098044839331</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2253973484039307</v>
+        <v>0.2263941764831543</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0432328163883104</t>
+          <t>0.417069598337693</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0927281265258789</v>
+        <v>0.3547687377929687</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.198863841242647</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0494953101375685</t>
+          <t>0.0623008605447241</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3258082866668701</v>
+        <v>0.4263949394226074</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0552821289798631</t>
+          <t>0.441069689890427</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0840262451171875</v>
+        <v>0.38729248046875</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.1988638458251953</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.0776918003275948</t>
+          <t>0.196560410377092</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0287441161373243</t>
+          <t>0.0537772094216772</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5252749919891357</v>
+        <v>0.7265920639038086</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0792181336185350</t>
+          <t>0.477093344828171</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09012937164306641</v>
+        <v>0.4367474975585938</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07769180297851562</v>
+        <v>0.1965604095458984</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.156828520684739</t>
+          <t>0.172434390985765</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0109112380245314</t>
+          <t>0.0403458472695775</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.745685338973999</v>
+        <v>0.9260585308074951</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.105667375256719</t>
+          <t>0.501029320856614</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1161168746948242</v>
+        <v>0.4824224853515625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1568285217285156</v>
+        <v>0.1724343872070312</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.149512567131360</t>
+          <t>0.111751854728708</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.0104494994381056</t>
+          <t>0.0186068355050512</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9262022972106934</v>
+        <v>1.226255416870117</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.127329410245122</t>
+          <t>0.537052947184128</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1409624938964844</v>
+        <v>0.520025634765625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1495125732421875</v>
+        <v>0.1117518539428711</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.121088419154306</t>
+          <t>0.114878645582895</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.0136330836513625</t>
+          <t>0.0170273124185033</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.025935649871826</v>
+        <v>1.496532440185547</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.139297412564458</t>
+          <t>0.569486189981980</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1617525024414062</v>
+        <v>0.553494384765625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1210884170532227</v>
+        <v>0.1148786468505859</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.0565054011928162</t>
+          <t>0.119293943715524</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0224550898769484</t>
+          <t>0.0159918052163549</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.225402355194092</v>
+        <v>1.725919008255005</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.163233417203130</t>
+          <t>0.597012578150315</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1775418701171875</v>
+        <v>0.5773950195312501</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05650540161132812</v>
+        <v>0.1192939453125</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0840804048164091</t>
+          <t>0.140322549016160</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.0143084529140578</t>
+          <t>0.0196175586190648</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.425865888595581</v>
+        <v>2.026116132736206</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.187289041211308</t>
+          <t>0.633036233088059</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1908899993896484</v>
+        <v>0.6135806274414063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08408040618896484</v>
+        <v>0.1403225555419922</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.134092122370514</t>
+          <t>0.149185183886422</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.00360095817834000</t>
+          <t>0.0194556056466527</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.525599241256714</v>
+        <v>2.226580142974854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.199257043530644</t>
+          <t>0.657091914316697</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2079393768310547</v>
+        <v>0.6417731323242187</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1340921173095703</v>
+        <v>0.1491851806640625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.100575827792355</t>
+          <t>0.143448262118920</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.00868233330041032</t>
+          <t>0.0153187819924779</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.726063013076782</v>
+        <v>2.42604660987854</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.223312696149053</t>
+          <t>0.681027890345139</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2282174987792969</v>
+        <v>0.6762262573242187</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1005758285522461</v>
+        <v>0.1434482574462891</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.114747959836205</t>
+          <t>0.112463611808136</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.00490480263024431</t>
+          <t>0.00480163302092029</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.925529718399048</v>
+        <v>2.626510381698608</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.247248700787724</t>
+          <t>0.705083542963547</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2468812408447266</v>
+        <v>0.7013474731445313</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1147479629516602</v>
+        <v>0.1124636154174805</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.141139231018850</t>
+          <t>0.111239489274071</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.000367459942997861</t>
+          <t>0.00373606981901597</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.125993490219116</v>
+        <v>2.925710201263428</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.271304353406133</t>
+          <t>0.740987521311326</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2727900085449219</v>
+        <v>0.7334774780273438</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1411392364501953</v>
+        <v>0.1112394866943359</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.130234029882464</t>
+          <t>0.127249170743721</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.00148565513878923</t>
+          <t>0.00751004328398186</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.225727081298828</v>
+        <v>3.126173734664917</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.283272384335698</t>
+          <t>0.765043145319504</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2911387329101562</v>
+        <v>0.7576537475585937</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1302340240478516</v>
+        <v>0.1272491683959961</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.0909388620003194</t>
+          <t>0.130751658839691</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.00786634857445817</t>
+          <t>0.00738939776091063</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.426190614700317</v>
+        <v>3.326174020767212</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.307328008343877</t>
+          <t>0.789043179651780</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3130706176757813</v>
+        <v>0.7861218872070312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0909388656616211</v>
+        <v>0.1307516632080078</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.0960703411923022</t>
+          <t>0.118291335807045</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.00574260933190446</t>
+          <t>0.00292129244474848</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.52663779258728</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.813098832270188</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8125031127929687</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1182913360595703</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.111618242188385</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.000595719477219259</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,411 +471,243 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.389902297159714</t>
+          <t>0.0169106195281913</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3494924926757813</v>
+        <v>0.1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0404098044839331</t>
+          <t>-0.0830893804718087</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2263941764831543</v>
+        <v>0.2553169727325439</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.417069598337693</t>
+          <t>0.0475486562560966</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3547687377929687</v>
+        <v>0.09438187408447266</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.198863841242647</t>
-        </is>
+        <v>-0.1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0623008605447241</t>
+          <t>-0.0468332178283761</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4263949394226074</v>
+        <v>0.5605349540710449</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.441069689890427</t>
+          <t>0.0841748140167167</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.38729248046875</v>
+        <v>0.07201687622070313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1988638458251953</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.196560410377092</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0537772094216772</t>
+          <t>0.0121579377960136</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7265920639038086</v>
+        <v>0.7549808025360107</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.477093344828171</t>
+          <t>0.107508315832513</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4367474975585938</v>
+        <v>0.07473374938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1965604095458984</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.172434390985765</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0403458472695775</t>
+          <t>0.0327745664428642</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9260585308074951</v>
+        <v>1.055177927017212</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.501029320856614</t>
+          <t>0.143531970770257</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4824224853515625</v>
+        <v>0.1076512451171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1724343872070312</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.111751854728708</t>
+          <t>0.247764517896698</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0186068355050512</t>
+          <t>0.0358807256530693</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.226255416870117</v>
+        <v>1.255641460418701</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.537052947184128</t>
+          <t>0.167587594778435</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.520025634765625</v>
+        <v>0.1523418731689453</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1117518539428711</v>
+        <v>0.2477645111083984</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.114878645582895</t>
+          <t>0.158270003962886</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0170273124185033</t>
+          <t>0.0152457216094901</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.496532440185547</v>
+        <v>1.609694480895996</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.569486189981980</t>
+          <t>0.210073957235711</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.553494384765625</v>
+        <v>0.2260124969482422</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1148786468505859</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.119293943715524</t>
-        </is>
+        <v>0.1582700042724609</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05827000427246093</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0159918052163549</t>
+          <t>-0.0159385397125313</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.725919008255005</v>
+        <v>1.855038404464722</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.597012578150315</t>
+          <t>0.239515228063958</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.5773950195312501</v>
+        <v>0.2588118591308594</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1192939453125</v>
+        <v>0.05827000427246094</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.140322549016160</t>
+          <t>0.0240296609593053</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.0196175586190648</t>
+          <t>-0.0192966310669014</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.026116132736206</v>
+        <v>2.155235528945923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.633036233088059</t>
+          <t>0.275538883001702</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6135806274414063</v>
+        <v>0.2727900085449219</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1403225555419922</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.149185183886422</t>
-        </is>
+        <v>0.02402966117858887</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1240296611785889</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0194556056466527</t>
+          <t>0.00274887445678018</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.226580142974854</v>
+        <v>2.455432415008545</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.657091914316697</t>
+          <t>0.311562509329217</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6417731323242187</v>
+        <v>0.2888943786621094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1491851806640625</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.143448262118920</t>
-        </is>
+        <v>0.1240296630859375</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2240296630859375</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0153187819924779</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2.42604660987854</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.681027890345139</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6762262573242187</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1434482574462891</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.112463611808136</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00480163302092029</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.626510381698608</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.705083542963547</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7013474731445313</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1124636154174805</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.111239489274071</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.00373606981901597</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2.925710201263428</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.740987521311326</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7334774780273438</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1112394866943359</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.127249170743721</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.00751004328398186</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3.126173734664917</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.765043145319504</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7576537475585937</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1272491683959961</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.130751658839691</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.00738939776091063</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3.326174020767212</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.789043179651780</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.7861218872070312</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1307516632080078</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.118291335807045</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.00292129244474848</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>3.52663779258728</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.813098832270188</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8125031127929687</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1182913360595703</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.111618242188385</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.000595719477219259</t>
+          <t>0.0226681306671073</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0169106195281913</t>
+          <t>0.612211935975459</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>1.252479370117187</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,229 +485,1065 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0830893804718087</t>
+          <t>-0.640267434141729</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2553169727325439</v>
+        <v>0.118682861328125</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0475486562560966</t>
+          <t>0.626453879334834</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09438187408447266</v>
+        <v>1.249644409179687</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0468332178283761</t>
+          <t>-0.623190529844854</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5605349540710449</v>
+        <v>0.2184162139892578</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0841748140167167</t>
+          <t>0.638421881654170</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07201687622070313</v>
+        <v>1.239406860351562</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0121579377960136</t>
+          <t>-0.600984978697393</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7549808025360107</v>
+        <v>0.3191466331481934</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.107508315832513</t>
+          <t>0.650509531953242</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07473374938964844</v>
+        <v>1.220625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0327745664428642</t>
+          <t>-0.570115468046758</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.055177927017212</v>
+        <v>0.4188797473907471</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.143531970770257</t>
+          <t>0.662477505662348</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1076512451171875</v>
+        <v>1.18869189453125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.247764517896698</t>
+          <t>-0.413824058436454</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0358807256530693</t>
+          <t>-0.526214388868902</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.255641460418701</v>
+        <v>0.5186131000518799</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.167587594778435</t>
+          <t>0.674445507981684</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1523418731689453</v>
+        <v>1.151994384765625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2477645111083984</v>
+        <v>-0.4138240661621094</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.158270003962886</t>
+          <t>-0.380726817947006</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0152457216094901</t>
+          <t>-0.477548876783941</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.609694480895996</v>
+        <v>0.6193437576293945</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.210073957235711</t>
+          <t>0.686533186890986</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2260124969482422</v>
+        <v>1.11068994140625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1582700042724609</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05827000427246093</v>
+        <v>-0.380726806640625</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-0.298654383340008</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0159385397125313</t>
+          <t>-0.424156754515264</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.855038404464722</v>
+        <v>0.7190771102905273</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.239515228063958</t>
+          <t>0.698501189210322</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2588118591308594</v>
+        <v>1.07328369140625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05827000427246094</v>
+        <v>-0.2986543884277344</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.0240296609593053</t>
+          <t>-0.215726693545023</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.0192966310669014</t>
+          <t>-0.374782502195928</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.155235528945923</v>
+        <v>0.8188102245330811</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.275538883001702</t>
+          <t>0.710469162919428</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2727900085449219</v>
+        <v>1.042925659179688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02402966117858887</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1240296611785889</v>
+        <v>-0.2157266998291016</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-0.151183432793809</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00274887445678018</t>
+          <t>-0.332456496260259</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.455432415008545</v>
+        <v>0.9185435771942139</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.311562509329217</t>
+          <t>0.722437165238764</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2888943786621094</v>
+        <v>1.019851867675781</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1240296630859375</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2240296630859375</v>
+        <v>-0.1511834259033203</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-0.109573379958852</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0226681306671073</t>
+          <t>-0.297414702437017</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.119007349014282</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.746492817857172</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9938643798828125</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.1095733795166016</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.00957337951660156</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-0.247371562025640</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.218740224838257</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.758460762956049</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.98382373046875</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.009573379516601562</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-0.00460459364586026</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-0.225362967512701</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.318473815917969</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.770428793885615</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9818156127929687</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.004604593753814697</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-0.0360958230632160</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-0.211386818907354</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.419204235076904</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.782516444184687</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.981146240234375</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.03609582138061523</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-0.0684781313322736</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-0.198629796049688</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.518468856811523</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.794428198792841</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9770906372070313</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.06847813415527344</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-0.0767746789297135</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-0.182662438414190</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.619199514389038</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.806515877702143</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9702000122070312</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.0767746810913086</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-0.0606287170180675</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-0.163684134504888</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.71893310546875</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.818483908631709</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9625612182617187</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.06062871551513672</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-0.0323485668463429</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-0.144077309630010</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.818665981292725</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.830451853730586</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9571275024414062</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.03234856796264649</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-0.00794103770924068</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-0.126675648710821</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.918399095535278</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.842419827439692</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9536624755859375</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.007941037654876708</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.0129649090065579</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-0.111242648146246</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.019129753112793</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.854507506348994</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9530718383789063</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01296490859985351</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.0249552066010732</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-0.0985643320299125</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.118863105773926</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.866475508668330</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.954568115234375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0249552059173584</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.0299354282640395</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-0.0880926065660453</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.218596458435059</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.878443510987666</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9570093383789062</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02993542861938477</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.0341719053133579</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-0.0785658273912406</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.319326877593994</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.890531161286738</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9601593627929688</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03417190551757812</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.0392927353804827</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-0.0696282015062309</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.419059991836548</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.902499134995844</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9636243896484376</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0392927360534668</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.0459294347207938</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-0.0611252546525933</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.51879358291626</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.914467165925410</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9675618896484375</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.04592943572998047</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.0536767321417410</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-0.0530947237230278</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.618526697158813</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.926435139634516</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9723262329101563</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05367673110961914</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.0602862883317214</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-0.0458910932756402</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.719257116317749</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.938522789933588</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9778387451171875</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.06028628921508789</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.0665304265434169</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-0.0393159551835992</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.918723583221436</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.962458765962031</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9905174560546876</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.06653042602539062</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.102726090354591</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-0.0280586900926569</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.018457174301147</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.974426796891596</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9977625122070313</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1027260894775391</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.106427579968569</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-0.0233357153154352</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.119187593460083</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.986514447190668</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.008078735351563</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1064275817871094</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.0952683799367786</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-0.0215642881608943</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.218920946121216</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.998482449510004</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.018631225585938</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.09526837921142578</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.0828437398872892</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-0.0201487760759334</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.31865406036377</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.01045042321911</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.02725439453125</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.08284374237060547</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.0821577584786615</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-0.0168039713121393</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.438333749771118</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.02481198594799</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.037491821289062</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.08215776062011719</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.0874803149204123</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-0.0126798353410700</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.618851184844971</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.04647407815685</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.052808715820313</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.08748031616210937</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.107483786482289</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-0.00633463766345765</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.718584299087524</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.05844205186596</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.062809936523438</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1074837875366211</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.105179655652923</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-0.00436788465747617</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.819314956665039</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.07052973077526</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.072063110351563</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1051796569824219</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.108776183365236</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-0.00153337957629929</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.919048309326172</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.08249773309460</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.083403076171875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1087761840820313</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.100965965754368</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-0.000905343077275633</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.018781423568726</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.09446570680371</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.093719360351562</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1009659652709961</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.0993420047076390</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.000746346452143332</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4.118514776229858</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.10643370912304</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.103405639648438</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.09934200286865234</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.102111354512962</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.00302806947460432</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.219245433807373</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.11852138803234</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.114391235351563</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.1021113510131836</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.0991417651350493</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.00413015268078110</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.318978548049927</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1.13048936174145</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.124077514648437</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.09914176177978516</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.103483312494008</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.00641184709301279</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.418247699737549</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.14240165994396</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1.134275634765625</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1034833145141602</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.105617739652806</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.00812602517833971</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.102259761416592</t>
+          <t>0.0227625198349844</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -480,376 +480,404 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.0133353040715935</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-0.1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00225976141659213</t>
+          <t>-0.0772374801650156</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1515941619873047</v>
+        <v>0.124666690826416</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.120451060855069</t>
+          <t>0.0377225227341543</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1007999954223633</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01333530426025391</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1133353042602539</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.0185828670076715</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0196510654327054</t>
+          <t>-0.0622774772658457</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2508783340454102</v>
+        <v>0.3241331577301025</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.132365161502041</t>
+          <t>0.0616584987625967</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1041468734741211</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1133353042602539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.181628031399309</t>
+          <t>0.0849591012781470</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0282182880279203</t>
+          <t>-0.0383415012374033</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4513423442840576</v>
+        <v>0.4248635768890381</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.156420842730679</t>
+          <t>0.0737461490616690</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1325362548828125</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1816280364990234</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.181544481105105</t>
+          <t>0.0365648532793354</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0238845878478665</t>
+          <t>-0.0262538509383310</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.651806116104126</v>
+        <v>0.6243298053741455</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.180476495349087</t>
+          <t>0.0976820964798819</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1680131225585937</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1815444793701172</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.135759212085315</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0124633727904935</t>
+          <t>-0.00231790352011815</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8512725830078125</v>
+        <v>0.7250604629516602</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.204412471377530</t>
+          <t>0.109769775389184</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1989618682861328</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1357592163085937</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.105711223809696</t>
+          <t>0.0689952022714890</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00545060309139681</t>
+          <t>0.00976977538918361</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9520032405853271</v>
+        <v>0.9245271682739258</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.216500150286831</t>
+          <t>0.133705780027855</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2110500030517578</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1057112274169922</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.110730934037953</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.00545014723507359</t>
+          <t>0.0337057800278555</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.151469469070435</v>
+        <v>1.124990701675415</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.240436097705044</t>
+          <t>0.157761404036034</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2324700012207031</v>
+        <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1107309341430664</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.130606579932103</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.00796609648434116</t>
+          <t>0.0577614040360342</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.350935935974121</v>
+        <v>1.324456930160522</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.264372073733487</t>
+          <t>0.181697351454247</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2554649963378906</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1306065826416016</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.143464958053579</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00890707739559604</t>
+          <t>0.0816973514542471</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.451666593551636</v>
+        <v>1.524920701980591</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.276459752642788</t>
+          <t>0.205753004072655</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2710574951171875</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1434649505615234</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.130946466893285</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.00540225752560086</t>
+          <t>0.105753004072655</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.695016145706177</v>
+        <v>1.724387168884277</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.305661698901333</t>
+          <t>0.229688980101098</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3021243591308594</v>
+        <v>0.1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1309464721679688</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.124953317902182</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00353733977047394</t>
+          <t>0.129688980101098</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.851597309112549</v>
+        <v>1.924850940704346</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.324451438510098</t>
+          <t>0.253744632719506</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3220874938964844</v>
+        <v>0.1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1249533157348633</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.121364555552772</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.00236394461361356</t>
+          <t>0.153744632719506</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.951330423355103</v>
+        <v>2.124317169189453</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.336419412219204</t>
+          <t>0.277680580137719</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3372074890136719</v>
+        <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1213645553588867</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.105044898961266</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.000788076794467463</t>
+          <t>0.177680580137719</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.151794195175171</v>
+        <v>2.324781179428101</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.360475064837613</t>
+          <t>0.301736261366356</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3585487365722656</v>
+        <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1050448989868164</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.120502651076424</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.00192632826534700</t>
+          <t>0.201736261366356</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.351260662078857</v>
+        <v>2.524247407913208</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.384411040866055</t>
+          <t>0.325672208784569</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3790237426757813</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1205026473999023</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.142814561505334</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.00538729819027373</t>
+          <t>0.225672208784569</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2.724711418151855</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.349727890013207</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.249727890013207</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2.925175189971924</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.373783542631615</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.273783542631615</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0227625198349844</t>
+          <t>0.00570190952792615</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -485,399 +485,735 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0772374801650156</t>
+          <t>-0.0942980904720739</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.124666690826416</v>
+        <v>0.1077117919921875</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0377225227341543</t>
+          <t>0.0186273245669886</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1</v>
+        <v>0.09863437652587891</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.0185828670076715</t>
+          <t>-0.100760320368000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0622774772658457</t>
+          <t>-0.0800070519588903</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3241331577301025</v>
+        <v>0.2084424495697021</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0616584987625967</t>
+          <t>0.0307150034762904</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.08843624877929687</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.1007603225708008</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.0849591012781470</t>
+          <t>-0.0415588417293684</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0383415012374033</t>
+          <t>-0.0577212453030065</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4248635768890381</v>
+        <v>0.3081753253936768</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0737461490616690</t>
+          <t>0.0426829485751674</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1</v>
+        <v>0.07867124938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.04155884170532227</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.0365648532793354</t>
+          <t>0.0343947923780135</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0262538509383310</t>
+          <t>-0.0359883008144811</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6243298053741455</v>
+        <v>0.4278552532196045</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0976820964798819</t>
+          <t>0.0570445399142787</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1</v>
+        <v>0.07559999847412109</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0.03439479064941407</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.104515205042219</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.00231790352011815</t>
+          <t>-0.0185554585598424</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7250604629516602</v>
+        <v>0.6083724498748779</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.109769775389184</t>
+          <t>0.0787066035129115</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.0869793701171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.1045152053833008</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.0689952022714890</t>
+          <t>0.148129363720829</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00976977538918361</t>
+          <t>-0.00827276660427599</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9245271682739258</v>
+        <v>0.7081055641174316</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.133705780027855</t>
+          <t>0.0906745772220180</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.09820124816894531</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1</v>
+        <v>0.1481293640136719</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.144722994946589</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0337057800278555</t>
+          <t>-0.00752667094692736</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.124990701675415</v>
+        <v>0.8078386783599854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.157761404036034</t>
+          <t>0.102642550931124</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1</v>
+        <v>0.11221875</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.1447229919433594</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.125482437231156</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.0577614040360342</t>
+          <t>-0.00957619906887561</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.324456930160522</v>
+        <v>0.9085693359375</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.181697351454247</t>
+          <t>0.114730229840426</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>0.1260787506103516</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.1</v>
+        <v>0.1254824371337891</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.106019206770209</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0816973514542471</t>
+          <t>-0.0113485207699254</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.524920701980591</v>
+        <v>1.008302211761475</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.205753004072655</t>
+          <t>0.126698174939303</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1</v>
+        <v>0.1391512451171875</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0.1060192031860352</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.0888857961365329</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.105753004072655</t>
+          <t>-0.0124530701778844</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.724387168884277</v>
+        <v>1.108035564422607</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.229688980101098</t>
+          <t>0.138666177258639</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1</v>
+        <v>0.1497825012207031</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1</v>
+        <v>0.08888579559326172</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.0851485986681395</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.129688980101098</t>
+          <t>-0.0111163239620641</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.924850940704346</v>
+        <v>1.207301378250122</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.253744632719506</t>
+          <t>0.150578074917941</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1</v>
+        <v>0.1581693725585938</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0.08514859771728515</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.0955162154522185</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.153744632719506</t>
+          <t>-0.00759129764065297</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.124317169189453</v>
+        <v>1.308033227920532</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.277680580137719</t>
+          <t>0.162665896878390</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1</v>
+        <v>0.1669499969482422</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.09551621246337891</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.107766023338897</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.177680580137719</t>
+          <t>-0.00428410006985219</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.324781179428101</v>
+        <v>1.407766580581665</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.301736261366356</t>
+          <t>0.174633899197726</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1</v>
+        <v>0.1768331298828125</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1</v>
+        <v>0.1077660217285156</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.115777935043325</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.201736261366356</t>
+          <t>-0.00219923068508657</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.524247407913208</v>
+        <v>1.50849723815918</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.325672208784569</t>
+          <t>0.186721578107028</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1</v>
+        <v>0.1878974914550781</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1</v>
+        <v>0.1157779388427734</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.119401666426251</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.225672208784569</t>
+          <t>-0.00117591334805042</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.724711418151855</v>
+        <v>1.608230113983154</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.349727890013207</t>
+          <t>0.198689523205905</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1</v>
+        <v>0.199552490234375</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1</v>
+        <v>0.1194016647338867</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.119754153357271</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.249727890013207</t>
+          <t>-0.000862967028470357</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.925175189971924</v>
+        <v>1.707963228225708</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.373783542631615</t>
+          <t>0.210657496915011</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1</v>
+        <v>0.2113256225585937</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.1</v>
+        <v>0.119754150390625</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.119690669836174</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.273783542631615</t>
+          <t>-0.000668125643582679</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.807696342468262</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.222625470624117</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2230593719482422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1196906661987305</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.120034381523055</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-0.000433901324124686</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.908427000045776</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.234713149533419</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2358168640136719</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1200343780517578</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.115253749700261</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-0.00110371448025262</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2.008160352706909</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.246681151852755</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2474718780517578</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1152537460327148</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.115667865449794</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-0.000790726199002612</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.107893228530884</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.258649096951632</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2587331237792969</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1156678619384766</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.118686465408006</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-8.40268276647294e-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.207626581192017</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.270617099270968</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2708212585449219</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1186864624023437</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.117462542590949</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-0.000204159273953841</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.308356761932373</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.282704720959811</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.282239990234375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1174625396728516</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.120786290766172</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.000464730725435791</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.408090591430664</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.294672780499606</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2936981201171875</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1207862930297851</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.123775348694812</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.000974660382418224</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.50782322883606</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.306640696988253</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3064556274414063</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1237753524780273</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.119556396011728</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.000185069546846939</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.608553886413574</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.318728375897555</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.31838623046875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.119556396484375</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.120212552473999</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.000342145428804952</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.708287477493286</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.330696406827120</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3309468688964844</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.1202125549316406</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.116586646717794</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-0.000250462069364021</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.808020114898682</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.342664323315768</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3427200012207031</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1165866470336914</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.117072936067334</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-5.56779049352696e-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.907753467559814</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.354632325635104</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3540206298828125</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1170729370117188</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.120523543835757</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.000611695752291253</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.00570190952792615</t>
+          <t>0.0186390711722204</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -485,735 +485,735 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0942980904720739</t>
+          <t>-0.0813609288277796</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1077117919921875</v>
+        <v>0.1266613006591797</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0186273245669886</t>
+          <t>0.0338384272513220</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09863437652587891</v>
+        <v>0.0966656265258789</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.100760320368000</t>
+          <t>-0.0640488573347107</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0800070519588903</t>
+          <t>-0.0628271992745569</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2084424495697021</v>
+        <v>0.2273917198181152</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0307150034762904</t>
+          <t>0.0459260775503943</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08843624877929687</v>
+        <v>0.08670375061035156</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1007603225708008</v>
+        <v>-0.06404885864257813</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.0415588417293684</t>
+          <t>0.00927690771506365</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0577212453030065</t>
+          <t>-0.0407776730599573</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3081753253936768</v>
+        <v>0.3490662574768066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0426829485751674</t>
+          <t>0.0605270220694372</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07867124938964844</v>
+        <v>0.08107312011718749</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04155884170532227</v>
+        <v>0.009276907920837402</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.0343947923780135</t>
+          <t>0.0916966804598453</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0359883008144811</t>
+          <t>-0.0205460980477503</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4278552532196045</v>
+        <v>0.5265910625457764</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0570445399142787</t>
+          <t>0.0818299986777136</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.07559999847412109</v>
+        <v>0.08871187591552734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03439479064941407</v>
+        <v>0.0916966781616211</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.104515205042219</t>
+          <t>0.153569220165534</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.0185554585598424</t>
+          <t>-0.00688187723781375</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6083724498748779</v>
+        <v>0.6273214817047119</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0787066035129115</t>
+          <t>0.0939176489767859</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0869793701171875</v>
+        <v>0.09753187561035156</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1045152053833008</v>
+        <v>0.1535692138671875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.148129363720829</t>
+          <t>0.166395453314521</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.00827276660427599</t>
+          <t>-0.00361422663356570</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7081055641174316</v>
+        <v>0.7270550727844238</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0906745772220180</t>
+          <t>0.105885679906351</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.09820124816894531</v>
+        <v>0.1131243743896484</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1481293640136719</v>
+        <v>0.1663954467773437</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.144722994946589</t>
+          <t>0.141490386456641</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.00752667094692736</t>
+          <t>-0.00723869448329714</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8078386783599854</v>
+        <v>0.8267879486083984</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.102642550931124</t>
+          <t>0.117853625005228</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.11221875</v>
+        <v>0.1295043792724609</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1447229919433594</v>
+        <v>0.1414903869628906</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.125482437231156</t>
+          <t>0.108662532260505</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.00957619906887561</t>
+          <t>-0.0116507542672327</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9085693359375</v>
+        <v>0.9270639419555664</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.114730229840426</t>
+          <t>0.129886744206888</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1260787506103516</v>
+        <v>0.1432462463378906</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1254824371337891</v>
+        <v>0.1086625289916992</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.106019206770209</t>
+          <t>0.0877973294101940</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.0113485207699254</t>
+          <t>-0.0133595021310022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.008302211761475</v>
+        <v>1.02679705619812</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.126698174939303</t>
+          <t>0.141854717915995</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1391512451171875</v>
+        <v>0.1540743713378906</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1060192031860352</v>
+        <v>0.08779733276367188</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0888857961365329</t>
+          <t>0.0821863163006360</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.0124530701778844</t>
+          <t>-0.0122196534218958</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.108035564422607</v>
+        <v>1.126530170440674</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.138666177258639</t>
+          <t>0.153822691625101</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1497825012207031</v>
+        <v>0.162146240234375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08888579559326172</v>
+        <v>0.08218631744384766</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0851485986681395</t>
+          <t>0.0938530875714187</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.0111163239620641</t>
+          <t>-0.00832354860927373</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.207301378250122</v>
+        <v>1.226614475250244</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.150578074917941</t>
+          <t>0.165832808202250</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1581693725585938</v>
+        <v>0.1712418670654297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08514859771728515</v>
+        <v>0.09385308837890625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.0955162154522185</t>
+          <t>0.103228333074684</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.00759129764065297</t>
+          <t>-0.00540905886317999</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.308033227920532</v>
+        <v>1.327345132827759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.162665896878390</t>
+          <t>0.177920487111551</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1669499969482422</v>
+        <v>0.1809281158447266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09551621246337891</v>
+        <v>0.1032283325195312</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.107766023338897</t>
+          <t>0.112195957097389</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.00428410006985219</t>
+          <t>-0.00300762873317512</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.407766580581665</v>
+        <v>1.427078008651733</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.174633899197726</t>
+          <t>0.189888432210428</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1768331298828125</v>
+        <v>0.1907324981689453</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1077660217285156</v>
+        <v>0.1121959533691406</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.115777935043325</t>
+          <t>0.121920434788308</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.00219923068508657</t>
+          <t>-0.000844065958516910</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.50849723815918</v>
+        <v>1.526811361312866</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.186721578107028</t>
+          <t>0.201856434529764</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1878974914550781</v>
+        <v>0.2022693786621094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1157779388427734</v>
+        <v>0.1219204330444336</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.119401666426251</t>
+          <t>0.123370223831765</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.00117591334805042</t>
+          <t>-0.000412944132345050</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.608230113983154</v>
+        <v>1.62654447555542</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.198689523205905</t>
+          <t>0.213824408238871</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.199552490234375</v>
+        <v>0.2142393646240234</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1194016647338867</v>
+        <v>0.1233702239990234</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.119754153357271</t>
+          <t>0.122652035416268</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.000862967028470357</t>
+          <t>-0.000414956385152682</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.707963228225708</v>
+        <v>1.727274894714355</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.210657496915011</t>
+          <t>0.225912058537943</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2113256225585937</v>
+        <v>0.2271937408447266</v>
       </c>
       <c r="D18" t="n">
-        <v>0.119754150390625</v>
+        <v>0.1226520385742187</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.119690669836174</t>
+          <t>0.116828690299111</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.000668125643582679</t>
+          <t>-0.00128168230678355</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.807696342468262</v>
+        <v>1.827008247375488</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.222625470624117</t>
+          <t>0.237880060857279</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2230593719482422</v>
+        <v>0.2389668731689453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1196906661987305</v>
+        <v>0.1168286895751953</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.120034381523055</t>
+          <t>0.116487399704659</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.000433901324124686</t>
+          <t>-0.00108681231166638</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.908427000045776</v>
+        <v>1.926741361618042</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.234713149533419</t>
+          <t>0.249848034566385</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2358168640136719</v>
+        <v>0.2501887512207031</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1200343780517578</v>
+        <v>0.1164873962402344</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.115253749700261</t>
+          <t>0.119573311912485</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-0.00110371448025262</t>
+          <t>-0.000340716654317730</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.008160352706909</v>
+        <v>2.026474475860596</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.246681151852755</t>
+          <t>0.261816008275492</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2474718780517578</v>
+        <v>0.2616862487792969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1152537460327148</v>
+        <v>0.1195733108520508</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.115667865449794</t>
+          <t>0.121704713236978</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-0.000790726199002612</t>
+          <t>0.000129759496194981</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.107893228530884</v>
+        <v>2.127205371856689</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.258649096951632</t>
+          <t>0.273903715795023</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2587331237792969</v>
+        <v>0.2748768615722657</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1156678619384766</v>
+        <v>0.1217047119140625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.118686465408006</t>
+          <t>0.114975424658212</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-8.40268276647294e-5</t>
+          <t>-0.000973145777242557</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.207626581192017</v>
+        <v>2.226938247680664</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.270617099270968</t>
+          <t>0.285871660893900</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2708212585449219</v>
+        <v>0.286728759765625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1186864624023437</v>
+        <v>0.1149754257202148</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.117462542590949</t>
+          <t>0.114444313055460</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.000204159273953841</t>
+          <t>-0.000857098871724971</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.308356761932373</v>
+        <v>2.326671600341797</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.282704720959811</t>
+          <t>0.297839663213236</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.282239990234375</v>
+        <v>0.2985018615722656</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1174625396728516</v>
+        <v>0.1144443130493164</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.120786290766172</t>
+          <t>0.114482084243845</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.000464730725435791</t>
+          <t>-0.000662198359029642</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.408090591430664</v>
+        <v>2.427402019500732</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.294672780499606</t>
+          <t>0.309927313512308</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2936981201171875</v>
+        <v>0.3097237548828125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1207862930297851</v>
+        <v>0.1144820861816406</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.123775348694812</t>
+          <t>0.118653565315348</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.000974660382418224</t>
+          <t>0.000203558629495726</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2.50782322883606</v>
+        <v>2.527135133743286</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.306640696988253</t>
+          <t>0.321895287221415</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3064556274414063</v>
+        <v>0.3210637512207031</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1237753524780273</v>
+        <v>0.118653564453125</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.119556396011728</t>
+          <t>0.122202322977580</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.000185069546846939</t>
+          <t>0.000831536000711564</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.608553886413574</v>
+        <v>2.626868486404419</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.318728375897555</t>
+          <t>0.333863289540751</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.31838623046875</v>
+        <v>0.3325612487792969</v>
       </c>
       <c r="D27" t="n">
-        <v>0.119556396484375</v>
+        <v>0.1222023239135742</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.120212552473999</t>
+          <t>0.125388736119242</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.000342145428804952</t>
+          <t>0.00130204076145374</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.708287477493286</v>
+        <v>2.726601362228394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.330696406827120</t>
+          <t>0.345831234639628</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3309468688964844</v>
+        <v>0.3452793579101562</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1202125549316406</v>
+        <v>0.1253887329101563</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.116586646717794</t>
+          <t>0.121797315775492</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.000250462069364021</t>
+          <t>0.000551876729471323</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.808020114898682</v>
+        <v>2.827332019805908</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.342664323315768</t>
+          <t>0.357918913548929</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3427200012207031</v>
+        <v>0.3572493591308594</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1165866470336914</v>
+        <v>0.1217973175048828</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.117072936067334</t>
+          <t>0.122651822358165</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-5.56779049352696e-5</t>
+          <t>0.000669554418069929</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.907753467559814</v>
+        <v>2.927065372467041</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.354632325635104</t>
+          <t>0.369886915868265</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3540206298828125</v>
+        <v>0.3699674987792969</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1170729370117188</v>
+        <v>0.1226518249511719</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.120523543835757</t>
+          <t>0.118492034420268</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.000611695752291253</t>
+          <t>-8.05829110316347e-5</t>
         </is>
       </c>
     </row>

--- a/pid_control_results.xlsx
+++ b/pid_control_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0186390711722204</t>
+          <t>0.278234916226968</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1</v>
+        <v>0.7487943725585937</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -485,735 +485,445 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.0813609288277796</t>
+          <t>-0.470559456331625</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1266613006591797</v>
+        <v>0.1456105709075928</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0338384272513220</t>
+          <t>0.295708184735879</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0966656265258789</v>
+        <v>0.7471012573242187</v>
       </c>
       <c r="D3" t="n">
         <v>-0.1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-0.0640488573347107</t>
-        </is>
+      <c r="E3" t="n">
+        <v>-0.2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-0.0628271992745569</t>
+          <t>-0.451393072588339</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2273917198181152</v>
+        <v>0.4443395137786865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0459260775503943</t>
+          <t>0.331555657880411</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08670375061035156</v>
+        <v>0.7067025146484375</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06404885864257813</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.00927690771506365</t>
+          <t>-0.157957611252487</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.0407776730599573</t>
+          <t>-0.375146856768027</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3490662574768066</v>
+        <v>0.6448032855987549</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0605270220694372</t>
+          <t>0.355611310498819</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08107312011718749</v>
+        <v>0.6739425048828125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009276907920837402</v>
+        <v>-0.1579576110839844</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.0916966804598453</t>
+          <t>-0.162315890805499</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0205460980477503</t>
+          <t>-0.318331194383994</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5265910625457764</v>
+        <v>0.8452670574188232</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0818299986777136</t>
+          <t>0.379666963117227</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.08871187591552734</v>
+        <v>0.640119384765625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0916966781616211</v>
+        <v>-0.1623158874511719</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.153569220165534</t>
+          <t>-0.109580262858816</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.00688187723781375</t>
+          <t>-0.260452421648398</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6273214817047119</v>
+        <v>1.045730829238892</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0939176489767859</t>
+          <t>0.403722615735635</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09753187561035156</v>
+        <v>0.6122025146484374</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1535692138671875</v>
+        <v>-0.1095802612304688</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.166395453314521</t>
+          <t>-0.0398507920547717</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.00361422663356570</t>
+          <t>-0.208479898912802</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7270550727844238</v>
+        <v>1.344930410385132</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.105885679906351</t>
+          <t>0.439626565473184</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1131243743896484</v>
+        <v>0.5860968627929688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1663954467773437</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.141490386456641</t>
-        </is>
+        <v>-0.03985079193115235</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.06014920806884766</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.00723869448329714</t>
+          <t>-0.146470297319785</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8267879486083984</v>
+        <v>1.445660829544067</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.117853625005228</t>
+          <t>0.451714215772256</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1295043792724609</v>
+        <v>0.5828681030273437</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1414903869628906</v>
+        <v>0.06014920806884766</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.108662532260505</t>
+          <t>0.0158583753605062</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.0116507542672327</t>
+          <t>-0.131153887255087</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9270639419555664</v>
+        <v>1.645127058029175</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.129886744206888</t>
+          <t>0.475650163190469</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1432462463378906</v>
+        <v>0.5939324951171875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1086625289916992</v>
+        <v>0.01585837554931641</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.0877973294101940</t>
+          <t>-0.0292142698434463</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.0133595021310022</t>
+          <t>-0.118282331926718</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.02679705619812</v>
+        <v>1.845591068267822</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.141854717915995</t>
+          <t>0.499705844419107</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1540743713378906</v>
+        <v>0.5951531372070312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08779733276367188</v>
+        <v>-0.02921426963806152</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.0821863163006360</t>
+          <t>-0.00403249750513076</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.0122196534218958</t>
+          <t>-0.0954472927879243</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.126530170440674</v>
+        <v>2.045588970184326</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.153822691625101</t>
+          <t>0.523705592649087</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.162146240234375</v>
+        <v>0.5892862548828125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08218631744384766</v>
+        <v>-0.004032497406005859</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.0938530875714187</t>
+          <t>0.0831085025080501</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.00832354860927373</t>
+          <t>-0.0655806622337251</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.226614475250244</v>
+        <v>2.245055437088013</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.165832808202250</t>
+          <t>0.547641568677530</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1712418670654297</v>
+        <v>0.588813720703125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09385308837890625</v>
+        <v>0.08310850524902344</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.103228333074684</t>
+          <t>0.164877156037619</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.00540905886317999</t>
+          <t>-0.0411721520255952</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.327345132827759</v>
+        <v>2.345785856246948</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.177920487111551</t>
+          <t>0.559729218976602</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1809281158447266</v>
+        <v>0.6040912475585938</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1032283325195312</v>
+        <v>0.1648771514892578</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.112195957097389</t>
+          <t>0.105729745120166</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-0.00300762873317512</t>
+          <t>-0.0443620285819918</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.427078008651733</v>
+        <v>2.644985437393188</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.189888432210428</t>
+          <t>0.595633168714151</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1907324981689453</v>
+        <v>0.6416943359375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1121959533691406</v>
+        <v>0.1057297439575195</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.121920434788308</t>
+          <t>0.0524515289857334</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.000844065958516910</t>
+          <t>-0.0460611672233492</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.526811361312866</v>
+        <v>2.845449209213257</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.201856434529764</t>
+          <t>0.619688821332559</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2022693786621094</v>
+        <v>0.6624450073242187</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1219204330444336</v>
+        <v>0.05245153045654297</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.123370223831765</t>
+          <t>0.0271170905353222</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-0.000412944132345050</t>
+          <t>-0.0427561859916596</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.62654447555542</v>
+        <v>3.044915676116943</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.213824408238871</t>
+          <t>0.643624797361001</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2142393646240234</v>
+        <v>0.6696900024414062</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1233702239990234</v>
+        <v>0.02711709022521973</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.122652035416268</t>
+          <t>0.0837032532758585</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-0.000414956385152682</t>
+          <t>-0.0260652050804048</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.727274894714355</v>
+        <v>3.245379447937012</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.225912058537943</t>
+          <t>0.667680449979410</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.2271937408447266</v>
+        <v>0.6783918457031251</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1226520385742187</v>
+        <v>0.08370325469970703</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.116828690299111</t>
+          <t>0.147409134723670</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-0.00128168230678355</t>
+          <t>-0.0107113957237154</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.827008247375488</v>
+        <v>3.445369958877563</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.237880060857279</t>
+          <t>0.691679311292276</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2389668731689453</v>
+        <v>0.693275634765625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1168286895751953</v>
+        <v>0.1474091339111328</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.116487399704659</t>
+          <t>0.188122977840642</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-0.00108681231166638</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1.926741361618042</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.249848034566385</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2501887512207031</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1164873962402344</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.119573311912485</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-0.000340716654317730</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2.026474475860596</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.261816008275492</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.2616862487792969</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1195733108520508</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.121704713236978</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.000129759496194981</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2.127205371856689</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.273903715795023</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2748768615722657</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1217047119140625</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.114975424658212</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-0.000973145777242557</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2.226938247680664</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.285871660893900</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.286728759765625</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.1149754257202148</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.114444313055460</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.000857098871724971</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>2.326671600341797</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.297839663213236</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.2985018615722656</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.1144443130493164</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.114482084243845</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-0.000662198359029642</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>2.427402019500732</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.309927313512308</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0.3097237548828125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.1144820861816406</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.118653565315348</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.000203558629495726</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>2.527135133743286</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.321895287221415</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0.3210637512207031</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.118653564453125</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.122202322977580</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.000831536000711564</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>2.626868486404419</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.333863289540751</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0.3325612487792969</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1222023239135742</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.125388736119242</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.00130204076145374</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>2.726601362228394</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.345831234639628</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0.3452793579101562</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.1253887329101563</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.121797315775492</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.000551876729471323</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2.827332019805908</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.357918913548929</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0.3572493591308594</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.1217973175048828</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.122651822358165</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.000669554418069929</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2.927065372467041</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.369886915868265</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.3699674987792969</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.1226518249511719</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.118492034420268</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-8.05829110316347e-5</t>
+          <t>-0.00159632347334915</t>
         </is>
       </c>
     </row>
